--- a/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
+++ b/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Desktop\saito\101_コンテンツ開発\03_作業フォルダ\01_研修開発(TIS_DEV)\01_Git\tis_dev\03_コンテンツ\01_Java研修\10_チーム開発演習(ショッピングサイト改修)\01_問題\01_設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Desktop\hanayoriRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250CFFEA-AC66-4FF9-8A90-C625AA7E9DE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="767" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,13 +21,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移図(システム管理者)'!$A$1:$AS$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図(運用管理者)'!$A$1:$AU$120</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図(非会員)'!$A$1:$AK$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面遷移図(一般会員)'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'画面遷移図(運用管理者)'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -582,61 +581,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ナビゲーションバーには、トップ(2-1-1-2トップ画面)、新着一覧(2-2-1-2商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)、注文一覧(5-1-1-2注文一覧画面)へのリンクが表示される</t>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シンチャク</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>・ナビゲーションバーには、トップ(2-1-1-1トップ画面)、新着一覧(2-1-2-1商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)へのリンクが表示される</t>
     <rPh sb="27" eb="29">
       <t>ガメン</t>
@@ -780,11 +724,58 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>・ナビゲーションバーには、トップ(2-1-1-2トップ画面)、新着一覧(2-2-1-2商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)、</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　注文一覧(5-1-1-2注文一覧画面)、お気に入り一覧(0-0-0-0お気に入り一覧画面)へのリンクが表示される</t>
+    <rPh sb="1" eb="3">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -986,7 +977,7 @@
   <cellStyles count="3">
     <cellStyle name="見出し 1" xfId="1" builtinId="16"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1021,7 +1012,7 @@
         <xdr:cNvPr id="274" name="カギ線コネクタ 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1073,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1173,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1265,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1379,7 +1370,7 @@
         <xdr:cNvPr id="36" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1483,7 @@
         <xdr:cNvPr id="70" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1575,7 @@
         <xdr:cNvPr id="78" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1667,7 @@
         <xdr:cNvPr id="79" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1759,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1820,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1881,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1939,7 @@
         <xdr:cNvPr id="226" name="カギ線コネクタ 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +1995,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,6 +2034,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ヘッダ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
@@ -2087,7 +2082,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2135,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2238,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,6 +2278,10 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ナビゲーションバー</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
           </a:br>
@@ -2321,7 +2320,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2391,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2462,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2538,7 @@
         <xdr:cNvPr id="71" name="カギ線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2602,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2655,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2726,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,7 +2809,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2862,7 @@
         <xdr:cNvPr id="88" name="テキスト ボックス 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2940,7 +2939,7 @@
         <xdr:cNvPr id="93" name="テキスト ボックス 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3015,7 @@
         <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3068,7 @@
         <xdr:cNvPr id="97" name="テキスト ボックス 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3144,7 @@
         <xdr:cNvPr id="98" name="カギ線コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3200,7 +3199,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3276,7 +3275,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3328,7 @@
         <xdr:cNvPr id="110" name="テキスト ボックス 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3405,7 +3404,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3460,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3535,7 +3534,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,13 +3605,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>137241</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>135094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>137795</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3620,7 +3619,7 @@
         <xdr:cNvPr id="11" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3706,13 +3705,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>152182</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>152735</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>187814</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3720,7 +3719,7 @@
         <xdr:cNvPr id="14" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,13 +3797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230239</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>14535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228758</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3812,7 +3811,7 @@
         <xdr:cNvPr id="15" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,13 +3889,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>37312</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>22630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>37867</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3904,7 +3903,7 @@
         <xdr:cNvPr id="16" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,13 +3992,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>104390</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>14522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>104944</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4007,7 +4006,7 @@
         <xdr:cNvPr id="17" name="Rounded Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,13 +4095,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>187167</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>7727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>184881</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4110,7 +4109,7 @@
         <xdr:cNvPr id="18" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4188,13 +4187,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247692</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>16909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>248246</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>16908</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4202,7 +4201,7 @@
         <xdr:cNvPr id="19" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,13 +4279,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>37311</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>187498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>37867</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4294,7 +4293,7 @@
         <xdr:cNvPr id="20" name="Rounded Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,13 +4371,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>26980</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>27535</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>79537</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4386,7 +4385,7 @@
         <xdr:cNvPr id="46" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4464,13 +4463,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>244318</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>241479</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4478,7 +4477,7 @@
         <xdr:cNvPr id="51" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4556,13 +4555,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>120738</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>144848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>120739</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4570,7 +4569,7 @@
         <xdr:cNvPr id="54" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4648,13 +4647,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>189298</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>187816</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4662,7 +4661,7 @@
         <xdr:cNvPr id="55" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4740,13 +4739,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>89848</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>149348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>91208</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>145016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4754,7 +4753,7 @@
         <xdr:cNvPr id="56" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,13 +4831,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>187504</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>187817</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>107323</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4846,7 +4845,7 @@
         <xdr:cNvPr id="59" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4924,13 +4923,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>216931</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>214648</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>120738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4938,7 +4937,7 @@
         <xdr:cNvPr id="60" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,13 +5015,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>29768</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>168671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>178594</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>168673</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5030,7 +5029,7 @@
         <xdr:cNvPr id="64" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +5075,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>5736</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9640</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1013483" cy="359073"/>
@@ -5085,7 +5084,7 @@
         <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5125,6 +5124,10 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ナビゲーションバー</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
           </a:br>
@@ -5154,7 +5157,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>58091</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>79204</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="802336" cy="225703"/>
@@ -5163,7 +5166,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5225,13 +5228,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247969</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>175452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>250195</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>16909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5239,7 +5242,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,13 +5289,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>89297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>138906</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>89298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5300,7 +5303,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5347,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>58323</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>17820</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="875624" cy="225703"/>
@@ -5353,7 +5356,7 @@
         <xdr:cNvPr id="77" name="テキスト ボックス 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +5417,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>233550</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123383</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1028487" cy="359073"/>
@@ -5423,7 +5426,7 @@
         <xdr:cNvPr id="90" name="テキスト ボックス 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5492,13 +5495,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>229790</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57760</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5506,7 +5509,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5550,13 +5553,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>229790</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>4832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57760</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>4832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5564,7 +5567,7 @@
         <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5608,7 +5611,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>5227</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>156610</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="877676" cy="225703"/>
@@ -5617,7 +5620,7 @@
         <xdr:cNvPr id="94" name="テキスト ボックス 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5682,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>230030</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>118862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -5688,7 +5691,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5750,13 +5753,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1117</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1798</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>83666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5764,7 +5767,7 @@
         <xdr:cNvPr id="98" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5842,7 +5845,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19667</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>191415</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1013483" cy="359073"/>
@@ -5851,7 +5854,7 @@
         <xdr:cNvPr id="99" name="テキスト ボックス 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5920,13 +5923,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>57144</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>145606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>143083</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>145606</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5934,7 +5937,7 @@
         <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5978,7 +5981,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>112848</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>91016</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -5987,7 +5990,7 @@
         <xdr:cNvPr id="104" name="テキスト ボックス 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6049,13 +6052,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>43729</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>129668</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6063,7 +6066,7 @@
         <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6107,7 +6110,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>153157</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>48673</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -6116,7 +6119,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6178,7 +6181,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>217900</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>21835</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="875945" cy="359073"/>
@@ -6187,7 +6190,7 @@
         <xdr:cNvPr id="115" name="テキスト ボックス 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6252,13 +6255,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>221739</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>142456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>45395</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>142456</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6266,7 +6269,7 @@
         <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6310,7 +6313,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>34278</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>65003</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -6319,7 +6322,7 @@
         <xdr:cNvPr id="117" name="テキスト ボックス 116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6381,7 +6384,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>146755</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>114808</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="913069" cy="359073"/>
@@ -6390,7 +6393,7 @@
         <xdr:cNvPr id="119" name="テキスト ボックス 118">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6430,6 +6433,10 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>ヘッダ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
           </a:br>
@@ -6459,13 +6466,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>102219</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>163851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>188159</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>163851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6473,7 +6480,7 @@
         <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6517,13 +6524,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>88804</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>108400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>174744</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>108400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6531,7 +6538,7 @@
         <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6575,7 +6582,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>158312</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123454</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -6584,7 +6591,7 @@
         <xdr:cNvPr id="128" name="テキスト ボックス 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6646,7 +6653,7 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>157207</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>39698</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -6655,7 +6662,7 @@
         <xdr:cNvPr id="129" name="テキスト ボックス 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6717,13 +6724,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>184881</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>4586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>37311</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>8958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6731,7 +6738,7 @@
         <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6778,7 +6785,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>189384</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>173868</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="789383" cy="359073"/>
@@ -6787,7 +6794,7 @@
         <xdr:cNvPr id="138" name="テキスト ボックス 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6852,13 +6859,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>252724</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>156865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>83769</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>156865</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6866,7 +6873,7 @@
         <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6910,7 +6917,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>202618</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>187273</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -6919,7 +6926,7 @@
         <xdr:cNvPr id="149" name="テキスト ボックス 148">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6980,13 +6987,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150230</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>108033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>236169</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>108033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6994,7 +7001,7 @@
         <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7038,13 +7045,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114812</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>18954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>18954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7052,7 +7059,7 @@
         <xdr:cNvPr id="151" name="直線矢印コネクタ 150">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7096,7 +7103,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>52101</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>126469</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -7105,7 +7112,7 @@
         <xdr:cNvPr id="153" name="テキスト ボックス 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7167,7 +7174,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>66865</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>168765</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -7176,7 +7183,7 @@
         <xdr:cNvPr id="154" name="テキスト ボックス 153">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7237,13 +7244,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>253797</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>10368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>84842</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>10368</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7251,7 +7258,7 @@
         <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7295,13 +7302,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>136814</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>175110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>222753</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>175110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7309,7 +7316,7 @@
         <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7353,7 +7360,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>164394</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>164558</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -7362,7 +7369,7 @@
         <xdr:cNvPr id="157" name="テキスト ボックス 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7424,7 +7431,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>176084</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>177088</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -7433,7 +7440,7 @@
         <xdr:cNvPr id="158" name="テキスト ボックス 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7494,13 +7501,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>124472</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>210411</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7508,7 +7515,7 @@
         <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7552,13 +7559,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>187816</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>138609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>89848</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>147182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7566,7 +7573,7 @@
         <xdr:cNvPr id="160" name="直線矢印コネクタ 159">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7613,7 +7620,7 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>166999</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19273</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -7622,7 +7629,7 @@
         <xdr:cNvPr id="161" name="テキスト ボックス 160">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7684,13 +7691,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>67078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155676</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>40239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7698,7 +7705,7 @@
         <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7744,13 +7751,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>168475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>179938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>254414</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>179938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7758,7 +7765,7 @@
         <xdr:cNvPr id="170" name="直線矢印コネクタ 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7802,13 +7809,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>226964</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>58009</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7816,7 +7823,7 @@
         <xdr:cNvPr id="172" name="直線矢印コネクタ 171">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7860,7 +7867,7 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>231925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>172184</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="710900" cy="359073"/>
@@ -7869,7 +7876,7 @@
         <xdr:cNvPr id="174" name="テキスト ボックス 173">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7934,7 +7941,7 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>26832</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050416" cy="359073"/>
@@ -7943,7 +7950,7 @@
         <xdr:cNvPr id="176" name="テキスト ボックス 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,13 +8016,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>242900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>142123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>90529</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>149348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8023,7 +8030,7 @@
         <xdr:cNvPr id="179" name="カギ線コネクタ 178">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8072,7 +8079,7 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>79263</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>39688</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261728" cy="225703"/>
@@ -8081,7 +8088,7 @@
         <xdr:cNvPr id="182" name="テキスト ボックス 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8143,13 +8150,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>230239</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>12362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>229500</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>10190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8157,7 +8164,7 @@
         <xdr:cNvPr id="186" name="カギ線コネクタ 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8207,7 +8214,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>13459</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>76902</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1482393" cy="359073"/>
@@ -8216,7 +8223,7 @@
         <xdr:cNvPr id="189" name="テキスト ボックス 188">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8296,7 +8303,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>149163</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
@@ -8305,7 +8312,7 @@
         <xdr:cNvPr id="100" name="テキスト ボックス 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8367,13 +8374,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>174401</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>67078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>187504</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>110839</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8381,7 +8388,7 @@
         <xdr:cNvPr id="101" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8429,7 +8436,7 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>159734</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
@@ -8438,7 +8445,7 @@
         <xdr:cNvPr id="103" name="テキスト ボックス 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8499,13 +8506,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>84300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>26657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>218655</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>172453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8513,7 +8520,7 @@
         <xdr:cNvPr id="107" name="円/楕円 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8561,7 +8568,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>18403</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>128814</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="359073"/>
@@ -8570,7 +8577,7 @@
         <xdr:cNvPr id="108" name="テキスト ボックス 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8634,13 +8641,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3413</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>124385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9921</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>49609</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8648,7 +8655,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8692,13 +8699,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>247692</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>16910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247969</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>16909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8706,7 +8713,7 @@
         <xdr:cNvPr id="113" name="カギ線コネクタ 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8756,7 +8763,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>230276</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>157632</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="904928" cy="492443"/>
@@ -8765,7 +8772,7 @@
         <xdr:cNvPr id="114" name="テキスト ボックス 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8851,7 +8858,7 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>174367</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>81234</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2967848" cy="542456"/>
@@ -8860,7 +8867,7 @@
         <xdr:cNvPr id="118" name="テキスト ボックス 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8963,13 +8970,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38263</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>148827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>172618</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>136337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8977,7 +8984,7 @@
         <xdr:cNvPr id="120" name="円/楕円 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9025,13 +9032,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>172618</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>152459</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>7026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9039,7 +9046,7 @@
         <xdr:cNvPr id="122" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9050,8 +9057,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5331993" y="5917114"/>
-          <a:ext cx="753747" cy="241475"/>
+          <a:off x="5142183" y="6155757"/>
+          <a:ext cx="725276" cy="245443"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -9086,13 +9093,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>103091</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>166236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>237446</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9100,7 +9107,7 @@
         <xdr:cNvPr id="123" name="円/楕円 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9148,13 +9155,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>237446</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>187815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>152459</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>144878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9162,7 +9169,7 @@
         <xdr:cNvPr id="125" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9209,7 +9216,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161114</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>160297</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3162714" cy="767518"/>
@@ -9218,7 +9225,7 @@
         <xdr:cNvPr id="126" name="テキスト ボックス 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9306,7 +9313,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>160043</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>27881</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1319609" cy="359073"/>
@@ -9315,7 +9322,7 @@
         <xdr:cNvPr id="130" name="テキスト ボックス 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9384,13 +9391,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>13805</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>242871</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>3019</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9398,7 +9405,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9442,7 +9449,7 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>205942</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>51343</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1435521" cy="225703"/>
@@ -9451,7 +9458,7 @@
         <xdr:cNvPr id="144" name="テキスト ボックス 143">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9459,7 +9466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6238442" y="7491886"/>
+          <a:off x="5920942" y="7588517"/>
           <a:ext cx="1435521" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9513,13 +9520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>48426</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>166788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182781</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>124070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9527,7 +9534,7 @@
         <xdr:cNvPr id="145" name="円/楕円 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9575,13 +9582,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>223229</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>229499</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>14535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9589,7 +9596,7 @@
         <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9636,13 +9643,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>196725</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>149907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69022</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>151848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9650,7 +9657,7 @@
         <xdr:cNvPr id="152" name="直線矢印コネクタ 151">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9694,7 +9701,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>149034</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>177121</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3647161" cy="317395"/>
@@ -9703,7 +9710,7 @@
         <xdr:cNvPr id="162" name="テキスト ボックス 161">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9779,13 +9786,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>21318</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>188427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>155673</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>140963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9793,7 +9800,7 @@
         <xdr:cNvPr id="163" name="円/楕円 162">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9841,13 +9848,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219637</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>96630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>234674</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>188427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9855,7 +9862,7 @@
         <xdr:cNvPr id="164" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9901,13 +9908,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>89840</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>166788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>224194</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>124069</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9915,7 +9922,7 @@
         <xdr:cNvPr id="166" name="円/楕円 165">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9963,13 +9970,13 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>224194</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>188368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>139207</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>145430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9977,7 +9984,7 @@
         <xdr:cNvPr id="167" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10023,7 +10030,7 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>13234</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>189938</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1020792" cy="225703"/>
@@ -10032,7 +10039,7 @@
         <xdr:cNvPr id="168" name="テキスト ボックス 167">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10094,13 +10101,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1458</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>163966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1844</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83879</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10108,7 +10115,7 @@
         <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10155,13 +10162,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>239956</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>77162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>67926</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>77162</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10169,7 +10176,7 @@
         <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10213,7 +10220,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228066</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>93931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="359073"/>
@@ -10222,7 +10229,7 @@
         <xdr:cNvPr id="127" name="テキスト ボックス 126">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10287,13 +10294,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>251390</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>13660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257660</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>125522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10301,7 +10308,7 @@
         <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10345,7 +10352,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25192</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>8583</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="802336" cy="225703"/>
@@ -10354,7 +10361,7 @@
         <xdr:cNvPr id="132" name="テキスト ボックス 131">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10416,13 +10423,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>52930</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>116473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>187284</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>103982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10430,7 +10437,7 @@
         <xdr:cNvPr id="133" name="円/楕円 132">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10474,25 +10481,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>62406</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>6812</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="800219" cy="359073"/>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>243297</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>25763</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1007378" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10500,8 +10502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1862631" y="1226012"/>
-          <a:ext cx="800219" cy="359073"/>
+          <a:off x="6206775" y="11944437"/>
+          <a:ext cx="1007378" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10523,18 +10525,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>会員一覧表示</a:t>
+            <a:t>ナビゲーションバー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>注文一覧</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>(</a:t>
@@ -10547,6 +10553,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
             <a:t>)</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10554,23 +10561,84 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1457</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>3836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1551</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>100442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="110" idx="2"/>
+          <a:endCxn id="134" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6710370" y="12303510"/>
+          <a:ext cx="94" cy="287106"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1116</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>100442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1797</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A4000000}"/>
+        <xdr:cNvPr id="134" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10578,8 +10646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="1038225"/>
-          <a:ext cx="1546325" cy="1156607"/>
+          <a:off x="5964594" y="12590616"/>
+          <a:ext cx="1491551" cy="1142787"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10621,7 +10689,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>1-3-1-3</a:t>
+            <a:t>0-0-0-0</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10632,7 +10700,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>管理者用メニュー画面</a:t>
+            <a:t>お気に入り一覧画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
             <a:latin typeface="Meiryo" charset="-128"/>
@@ -10646,23 +10714,154 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7712</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>4624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12814</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11322</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>106406</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>4624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="143" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="12875798"/>
+          <a:ext cx="1373645" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>215461</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>153749</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="802336" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669809" y="12643923"/>
+          <a:ext cx="802336" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>商品名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>106406</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>240761</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A8000000}"/>
+        <xdr:cNvPr id="143" name="円/楕円 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10670,8 +10869,793 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2579462" y="1023944"/>
-          <a:ext cx="1548152" cy="1159078"/>
+          <a:off x="8803145" y="12706657"/>
+          <a:ext cx="382833" cy="338281"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>153710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>98123</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>153711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="171" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7462630" y="13786884"/>
+          <a:ext cx="1332232" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>98123</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>232478</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>132350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="円/楕円 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8794862" y="13617743"/>
+          <a:ext cx="382833" cy="338281"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>129189</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73982</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1020792" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="テキスト ボックス 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7583537" y="13516656"/>
+          <a:ext cx="1020792" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>トップへ戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98124</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>232479</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="円/楕円 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6807037" y="5989462"/>
+          <a:ext cx="382833" cy="338281"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>L</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1116</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1457</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100229</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="181" name="カギ線コネクタ 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="2"/>
+          <a:endCxn id="134" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6051785" y="13265319"/>
+          <a:ext cx="571393" cy="745776"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40007"/>
+            <a:gd name="adj2" fmla="val 130653"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>195677</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>10641</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716928" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5910677" y="14215315"/>
+          <a:ext cx="716928" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>98121</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>117093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>232477</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>74375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="円/楕円 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8794860" y="13178767"/>
+          <a:ext cx="382834" cy="338282"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1797</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>98121</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>100336</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線矢印コネクタ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="3"/>
+          <a:endCxn id="184" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7456145" y="13347908"/>
+          <a:ext cx="1338715" cy="4602"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>222507</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>26496</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1435521" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="テキスト ボックス 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7428377" y="13088170"/>
+          <a:ext cx="1435521" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>買い物かごへ入れる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>86199</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>189243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6049677" y="6158602"/>
+          <a:ext cx="757360" cy="234315"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100306"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62406</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862631" y="1226012"/>
+          <a:ext cx="800219" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>会員一覧表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>98525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="1038225"/>
+          <a:ext cx="1546325" cy="1156607"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10713,7 +11697,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>6-1-1-3</a:t>
+            <a:t>1-3-1-3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -10724,7 +11708,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>会員一覧画面</a:t>
+            <a:t>管理者用メニュー画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
             <a:latin typeface="Meiryo" charset="-128"/>
@@ -10739,22 +11723,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>12901</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>16607</xdr:rowOff>
+      <xdr:colOff>7712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>18149</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7086</xdr:rowOff>
+      <xdr:colOff>12814</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A9000000}"/>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10762,8 +11746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2584651" y="3140807"/>
-          <a:ext cx="1548298" cy="1133479"/>
+          <a:off x="2579462" y="1023944"/>
+          <a:ext cx="1548152" cy="1159078"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -10805,6 +11789,98 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
+            <a:t>6-1-1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>会員一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo" charset="-128"/>
+            <a:ea typeface="Meiryo" charset="-128"/>
+            <a:cs typeface="Meiryo" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18149</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2584651" y="3140807"/>
+          <a:ext cx="1548298" cy="1133479"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
             <a:t>6-2-1-3</a:t>
           </a:r>
         </a:p>
@@ -10841,7 +11917,7 @@
         <xdr:cNvPr id="170" name="テキスト ボックス 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10915,7 +11991,7 @@
         <xdr:cNvPr id="176" name="テキスト ボックス 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10993,7 +12069,7 @@
         <xdr:cNvPr id="183" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11056,7 +12132,7 @@
         <xdr:cNvPr id="186" name="グループ化 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11075,7 +12151,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11152,7 +12228,7 @@
           <xdr:cNvPr id="193" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11229,7 +12305,7 @@
           <xdr:cNvPr id="195" name="テキスト ボックス 194">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11289,7 +12365,7 @@
           <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11348,7 +12424,7 @@
         <xdr:cNvPr id="204" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11409,7 +12485,7 @@
         <xdr:cNvPr id="205" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11472,7 +12548,7 @@
         <xdr:cNvPr id="206" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11527,7 +12603,7 @@
         <xdr:cNvPr id="207" name="テキスト ボックス 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11603,7 +12679,7 @@
         <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11661,7 +12737,7 @@
         <xdr:cNvPr id="209" name="グループ化 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11680,7 +12756,7 @@
           <xdr:cNvPr id="210" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11757,7 +12833,7 @@
           <xdr:cNvPr id="211" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11834,7 +12910,7 @@
           <xdr:cNvPr id="212" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11911,7 +12987,7 @@
           <xdr:cNvPr id="213" name="テキスト ボックス 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -11975,7 +13051,7 @@
           <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12021,7 +13097,7 @@
           <xdr:cNvPr id="217" name="テキスト ボックス 216">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12085,7 +13161,7 @@
           <xdr:cNvPr id="218" name="直線矢印コネクタ 217">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12128,7 +13204,7 @@
           <xdr:cNvPr id="219" name="テキスト ボックス 218">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12191,7 +13267,7 @@
           <xdr:cNvPr id="220" name="直線矢印コネクタ 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12245,7 +13321,7 @@
         <xdr:cNvPr id="241" name="テキスト ボックス 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12321,7 +13397,7 @@
         <xdr:cNvPr id="242" name="グループ化 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12340,7 +13416,7 @@
           <xdr:cNvPr id="243" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12417,7 +13493,7 @@
           <xdr:cNvPr id="254" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12494,7 +13570,7 @@
           <xdr:cNvPr id="255" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12571,7 +13647,7 @@
           <xdr:cNvPr id="260" name="テキスト ボックス 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12635,7 +13711,7 @@
           <xdr:cNvPr id="261" name="テキスト ボックス 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12698,7 +13774,7 @@
           <xdr:cNvPr id="262" name="直線矢印コネクタ 261">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12741,7 +13817,7 @@
           <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12784,7 +13860,7 @@
           <xdr:cNvPr id="265" name="テキスト ボックス 264">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12848,7 +13924,7 @@
           <xdr:cNvPr id="266" name="直線矢印コネクタ 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -12902,7 +13978,7 @@
         <xdr:cNvPr id="267" name="テキスト ボックス 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12975,7 +14051,7 @@
         <xdr:cNvPr id="268" name="テキスト ボックス 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13054,7 +14130,7 @@
         <xdr:cNvPr id="269" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13112,7 +14188,7 @@
         <xdr:cNvPr id="270" name="円/楕円 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13174,7 +14250,7 @@
         <xdr:cNvPr id="271" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13232,7 +14308,7 @@
         <xdr:cNvPr id="272" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13292,7 +14368,7 @@
         <xdr:cNvPr id="273" name="円/楕円 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13349,7 +14425,7 @@
         <xdr:cNvPr id="274" name="テキスト ボックス 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13424,7 +14500,7 @@
         <xdr:cNvPr id="275" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13485,7 +14561,7 @@
         <xdr:cNvPr id="276" name="円/楕円 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13547,7 +14623,7 @@
         <xdr:cNvPr id="277" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13605,7 +14681,7 @@
         <xdr:cNvPr id="278" name="円/楕円 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13667,7 +14743,7 @@
         <xdr:cNvPr id="280" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13722,7 +14798,7 @@
         <xdr:cNvPr id="281" name="テキスト ボックス 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13795,7 +14871,7 @@
         <xdr:cNvPr id="282" name="テキスト ボックス 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13868,7 +14944,7 @@
         <xdr:cNvPr id="284" name="テキスト ボックス 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13946,7 +15022,7 @@
         <xdr:cNvPr id="285" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14004,7 +15080,7 @@
         <xdr:cNvPr id="286" name="テキスト ボックス 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14079,7 +15155,7 @@
         <xdr:cNvPr id="288" name="円/楕円 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14141,7 +15217,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14201,7 +15277,7 @@
         <xdr:cNvPr id="290" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14258,7 +15334,7 @@
         <xdr:cNvPr id="291" name="テキスト ボックス 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14334,7 +15410,7 @@
         <xdr:cNvPr id="292" name="円/楕円 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14396,7 +15472,7 @@
         <xdr:cNvPr id="293" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14456,7 +15532,7 @@
         <xdr:cNvPr id="294" name="円/楕円 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14513,7 +15589,7 @@
         <xdr:cNvPr id="295" name="テキスト ボックス 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14589,7 +15665,7 @@
         <xdr:cNvPr id="296" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14650,7 +15726,7 @@
         <xdr:cNvPr id="299" name="円/楕円 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14707,7 +15783,7 @@
         <xdr:cNvPr id="300" name="テキスト ボックス 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14792,7 +15868,7 @@
         <xdr:cNvPr id="301" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14852,7 +15928,7 @@
         <xdr:cNvPr id="302" name="円/楕円 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14914,7 +15990,7 @@
         <xdr:cNvPr id="303" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14970,7 +16046,7 @@
         <xdr:cNvPr id="304" name="テキスト ボックス 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15055,7 +16131,7 @@
         <xdr:cNvPr id="305" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15147,7 +16223,7 @@
         <xdr:cNvPr id="306" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15234,7 +16310,7 @@
         <xdr:cNvPr id="307" name="テキスト ボックス 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15308,7 +16384,7 @@
         <xdr:cNvPr id="308" name="テキスト ボックス 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15386,7 +16462,7 @@
         <xdr:cNvPr id="309" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15449,7 +16525,7 @@
         <xdr:cNvPr id="310" name="グループ化 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000036010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15468,7 +16544,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000037010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15545,7 +16621,7 @@
           <xdr:cNvPr id="312" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000038010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15622,7 +16698,7 @@
           <xdr:cNvPr id="313" name="テキスト ボックス 312">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000039010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15682,7 +16758,7 @@
           <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15741,7 +16817,7 @@
         <xdr:cNvPr id="317" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15802,7 +16878,7 @@
         <xdr:cNvPr id="318" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15864,7 +16940,7 @@
         <xdr:cNvPr id="319" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15919,7 +16995,7 @@
         <xdr:cNvPr id="320" name="テキスト ボックス 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15995,7 +17071,7 @@
         <xdr:cNvPr id="321" name="直線矢印コネクタ 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16053,7 +17129,7 @@
         <xdr:cNvPr id="322" name="グループ化 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000042010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16072,7 +17148,7 @@
           <xdr:cNvPr id="323" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000043010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16146,7 +17222,7 @@
           <xdr:cNvPr id="324" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000044010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16223,7 +17299,7 @@
           <xdr:cNvPr id="325" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000045010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16300,7 +17376,7 @@
           <xdr:cNvPr id="326" name="テキスト ボックス 325">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000046010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16364,7 +17440,7 @@
           <xdr:cNvPr id="327" name="直線矢印コネクタ 326">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000047010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16410,7 +17486,7 @@
           <xdr:cNvPr id="328" name="テキスト ボックス 327">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16474,7 +17550,7 @@
           <xdr:cNvPr id="329" name="直線矢印コネクタ 328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000049010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16517,7 +17593,7 @@
           <xdr:cNvPr id="330" name="テキスト ボックス 329">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16580,7 +17656,7 @@
           <xdr:cNvPr id="331" name="直線矢印コネクタ 330">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16634,7 +17710,7 @@
         <xdr:cNvPr id="332" name="テキスト ボックス 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16710,7 +17786,7 @@
         <xdr:cNvPr id="333" name="グループ化 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16729,7 +17805,7 @@
           <xdr:cNvPr id="334" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16806,7 +17882,7 @@
           <xdr:cNvPr id="335" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16883,7 +17959,7 @@
           <xdr:cNvPr id="336" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000050010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -16960,7 +18036,7 @@
           <xdr:cNvPr id="337" name="テキスト ボックス 336">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000051010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17024,7 +18100,7 @@
           <xdr:cNvPr id="338" name="テキスト ボックス 337">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000052010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17087,7 +18163,7 @@
           <xdr:cNvPr id="339" name="直線矢印コネクタ 338">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000053010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17130,7 +18206,7 @@
           <xdr:cNvPr id="340" name="直線矢印コネクタ 339">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000054010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17173,7 +18249,7 @@
           <xdr:cNvPr id="341" name="テキスト ボックス 340">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000055010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17237,7 +18313,7 @@
           <xdr:cNvPr id="342" name="直線矢印コネクタ 341">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000056010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -17291,7 +18367,7 @@
         <xdr:cNvPr id="343" name="テキスト ボックス 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17380,7 +18456,7 @@
         <xdr:cNvPr id="344" name="テキスト ボックス 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17459,7 +18535,7 @@
         <xdr:cNvPr id="345" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000059010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17517,7 +18593,7 @@
         <xdr:cNvPr id="346" name="円/楕円 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17578,7 +18654,7 @@
         <xdr:cNvPr id="347" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17639,7 +18715,7 @@
         <xdr:cNvPr id="348" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17699,7 +18775,7 @@
         <xdr:cNvPr id="349" name="円/楕円 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17756,7 +18832,7 @@
         <xdr:cNvPr id="350" name="テキスト ボックス 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17831,7 +18907,7 @@
         <xdr:cNvPr id="351" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17892,7 +18968,7 @@
         <xdr:cNvPr id="352" name="円/楕円 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17954,7 +19030,7 @@
         <xdr:cNvPr id="353" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18015,7 +19091,7 @@
         <xdr:cNvPr id="354" name="円/楕円 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18077,7 +19153,7 @@
         <xdr:cNvPr id="356" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000064010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18132,7 +19208,7 @@
         <xdr:cNvPr id="357" name="テキスト ボックス 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000065010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18205,7 +19281,7 @@
         <xdr:cNvPr id="358" name="テキスト ボックス 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000066010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18278,7 +19354,7 @@
         <xdr:cNvPr id="360" name="テキスト ボックス 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000068010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18356,7 +19432,7 @@
         <xdr:cNvPr id="361" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000069010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18414,7 +19490,7 @@
         <xdr:cNvPr id="362" name="テキスト ボックス 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18489,7 +19565,7 @@
         <xdr:cNvPr id="363" name="円/楕円 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18551,7 +19627,7 @@
         <xdr:cNvPr id="364" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18611,7 +19687,7 @@
         <xdr:cNvPr id="365" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18668,7 +19744,7 @@
         <xdr:cNvPr id="366" name="テキスト ボックス 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18744,7 +19820,7 @@
         <xdr:cNvPr id="367" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18804,7 +19880,7 @@
         <xdr:cNvPr id="368" name="円/楕円 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000070010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18861,7 +19937,7 @@
         <xdr:cNvPr id="369" name="テキスト ボックス 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000071010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18937,7 +20013,7 @@
         <xdr:cNvPr id="372" name="円/楕円 371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000074010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18999,7 +20075,7 @@
         <xdr:cNvPr id="442" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19091,7 +20167,7 @@
         <xdr:cNvPr id="443" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19178,7 +20254,7 @@
         <xdr:cNvPr id="444" name="テキスト ボックス 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19252,7 +20328,7 @@
         <xdr:cNvPr id="445" name="テキスト ボックス 444">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BD010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19330,7 +20406,7 @@
         <xdr:cNvPr id="446" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19393,7 +20469,7 @@
         <xdr:cNvPr id="447" name="グループ化 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19412,7 +20488,7 @@
           <xdr:cNvPr id="448" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19489,7 +20565,7 @@
           <xdr:cNvPr id="449" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19566,7 +20642,7 @@
           <xdr:cNvPr id="450" name="テキスト ボックス 449">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19626,7 +20702,7 @@
           <xdr:cNvPr id="452" name="直線矢印コネクタ 451">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19685,7 +20761,7 @@
         <xdr:cNvPr id="454" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19746,7 +20822,7 @@
         <xdr:cNvPr id="455" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19808,7 +20884,7 @@
         <xdr:cNvPr id="456" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19863,7 +20939,7 @@
         <xdr:cNvPr id="457" name="テキスト ボックス 456">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19942,7 +21018,7 @@
         <xdr:cNvPr id="458" name="直線矢印コネクタ 457">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20000,7 +21076,7 @@
         <xdr:cNvPr id="459" name="グループ化 458">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20019,7 +21095,7 @@
           <xdr:cNvPr id="460" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20109,7 +21185,7 @@
           <xdr:cNvPr id="461" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20186,7 +21262,7 @@
           <xdr:cNvPr id="462" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20263,7 +21339,7 @@
           <xdr:cNvPr id="463" name="テキスト ボックス 462">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20327,7 +21403,7 @@
           <xdr:cNvPr id="464" name="直線矢印コネクタ 463">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20373,7 +21449,7 @@
           <xdr:cNvPr id="465" name="テキスト ボックス 464">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20437,7 +21513,7 @@
           <xdr:cNvPr id="466" name="直線矢印コネクタ 465">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20480,7 +21556,7 @@
           <xdr:cNvPr id="467" name="テキスト ボックス 466">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20543,7 +21619,7 @@
           <xdr:cNvPr id="468" name="直線矢印コネクタ 467">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20597,7 +21673,7 @@
         <xdr:cNvPr id="469" name="テキスト ボックス 468">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20676,7 +21752,7 @@
         <xdr:cNvPr id="470" name="グループ化 469">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20695,7 +21771,7 @@
           <xdr:cNvPr id="471" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D7010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D7010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20772,7 +21848,7 @@
           <xdr:cNvPr id="472" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D8010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20849,7 +21925,7 @@
           <xdr:cNvPr id="473" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20926,7 +22002,7 @@
           <xdr:cNvPr id="474" name="テキスト ボックス 473">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20990,7 +22066,7 @@
           <xdr:cNvPr id="475" name="テキスト ボックス 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21053,7 +22129,7 @@
           <xdr:cNvPr id="476" name="直線矢印コネクタ 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21096,7 +22172,7 @@
           <xdr:cNvPr id="477" name="直線矢印コネクタ 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21139,7 +22215,7 @@
           <xdr:cNvPr id="478" name="テキスト ボックス 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21203,7 +22279,7 @@
           <xdr:cNvPr id="479" name="直線矢印コネクタ 478">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21257,7 +22333,7 @@
         <xdr:cNvPr id="480" name="テキスト ボックス 479">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E0010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E0010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21346,7 +22422,7 @@
         <xdr:cNvPr id="481" name="テキスト ボックス 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21425,7 +22501,7 @@
         <xdr:cNvPr id="482" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21483,7 +22559,7 @@
         <xdr:cNvPr id="483" name="円/楕円 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21545,7 +22621,7 @@
         <xdr:cNvPr id="484" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21606,7 +22682,7 @@
         <xdr:cNvPr id="485" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21666,7 +22742,7 @@
         <xdr:cNvPr id="486" name="円/楕円 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21722,7 +22798,7 @@
         <xdr:cNvPr id="487" name="テキスト ボックス 486">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21797,7 +22873,7 @@
         <xdr:cNvPr id="488" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21858,7 +22934,7 @@
         <xdr:cNvPr id="489" name="円/楕円 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21920,7 +22996,7 @@
         <xdr:cNvPr id="490" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21980,7 +23056,7 @@
         <xdr:cNvPr id="491" name="円/楕円 490">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22042,7 +23118,7 @@
         <xdr:cNvPr id="493" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000ED010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000ED010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22097,7 +23173,7 @@
         <xdr:cNvPr id="494" name="テキスト ボックス 493">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22170,7 +23246,7 @@
         <xdr:cNvPr id="495" name="テキスト ボックス 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22243,7 +23319,7 @@
         <xdr:cNvPr id="497" name="テキスト ボックス 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22321,7 +23397,7 @@
         <xdr:cNvPr id="498" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22379,7 +23455,7 @@
         <xdr:cNvPr id="499" name="テキスト ボックス 498">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22454,7 +23530,7 @@
         <xdr:cNvPr id="500" name="円/楕円 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22516,7 +23592,7 @@
         <xdr:cNvPr id="501" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22576,7 +23652,7 @@
         <xdr:cNvPr id="502" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22633,7 +23709,7 @@
         <xdr:cNvPr id="503" name="テキスト ボックス 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22712,7 +23788,7 @@
         <xdr:cNvPr id="504" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22772,7 +23848,7 @@
         <xdr:cNvPr id="505" name="円/楕円 504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22829,7 +23905,7 @@
         <xdr:cNvPr id="506" name="テキスト ボックス 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22905,7 +23981,7 @@
         <xdr:cNvPr id="508" name="円/楕円 507">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22967,7 +24043,7 @@
         <xdr:cNvPr id="510" name="円/楕円 509">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23029,7 +24105,7 @@
         <xdr:cNvPr id="511" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23084,7 +24160,7 @@
         <xdr:cNvPr id="515" name="テキスト ボックス 514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003020000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23169,7 +24245,7 @@
         <xdr:cNvPr id="256" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23261,7 +24337,7 @@
         <xdr:cNvPr id="257" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23348,7 +24424,7 @@
         <xdr:cNvPr id="258" name="テキスト ボックス 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23419,7 +24495,7 @@
         <xdr:cNvPr id="259" name="テキスト ボックス 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23494,7 +24570,7 @@
         <xdr:cNvPr id="263" name="直線矢印コネクタ 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23552,7 +24628,7 @@
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23605,7 +24681,7 @@
         <xdr:cNvPr id="371" name="テキスト ボックス 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23707,7 +24783,7 @@
         <xdr:cNvPr id="374" name="円/楕円 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23769,7 +24845,7 @@
         <xdr:cNvPr id="375" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23824,7 +24900,7 @@
         <xdr:cNvPr id="376" name="テキスト ボックス 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000078010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23921,7 +24997,7 @@
         <xdr:cNvPr id="377" name="テキスト ボックス 376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000079010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000079010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24023,7 +25099,7 @@
         <xdr:cNvPr id="215" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24081,7 +25157,7 @@
         <xdr:cNvPr id="216" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24143,7 +25219,7 @@
         <xdr:cNvPr id="221" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24201,7 +25277,7 @@
         <xdr:cNvPr id="222" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24263,7 +25339,7 @@
         <xdr:cNvPr id="223" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24321,7 +25397,7 @@
         <xdr:cNvPr id="224" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24388,7 +25464,7 @@
         <xdr:cNvPr id="99" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24480,7 +25556,7 @@
         <xdr:cNvPr id="104" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24572,7 +25648,7 @@
         <xdr:cNvPr id="106" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24659,7 +25735,7 @@
         <xdr:cNvPr id="113" name="テキスト ボックス 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24733,7 +25809,7 @@
         <xdr:cNvPr id="114" name="テキスト ボックス 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24811,7 +25887,7 @@
         <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24874,7 +25950,7 @@
         <xdr:cNvPr id="119" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24930,7 +26006,7 @@
         <xdr:cNvPr id="120" name="テキスト ボックス 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25008,7 +26084,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25027,7 +26103,7 @@
           <xdr:cNvPr id="121" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25104,7 +26180,7 @@
           <xdr:cNvPr id="122" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25181,7 +26257,7 @@
           <xdr:cNvPr id="123" name="テキスト ボックス 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25241,7 +26317,7 @@
           <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25300,7 +26376,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25360,7 +26436,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25423,7 +26499,7 @@
         <xdr:cNvPr id="132" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25476,7 +26552,7 @@
         <xdr:cNvPr id="134" name="テキスト ボックス 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25552,7 +26628,7 @@
         <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25610,7 +26686,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25629,7 +26705,7 @@
           <xdr:cNvPr id="107" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25706,7 +26782,7 @@
           <xdr:cNvPr id="108" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25783,7 +26859,7 @@
           <xdr:cNvPr id="109" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25860,7 +26936,7 @@
           <xdr:cNvPr id="116" name="テキスト ボックス 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25924,7 +27000,7 @@
           <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000075000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -25970,7 +27046,7 @@
           <xdr:cNvPr id="136" name="テキスト ボックス 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26034,7 +27110,7 @@
           <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000089000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26077,7 +27153,7 @@
           <xdr:cNvPr id="139" name="テキスト ボックス 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26140,7 +27216,7 @@
           <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26194,7 +27270,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26270,7 +27346,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26289,7 +27365,7 @@
           <xdr:cNvPr id="100" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26366,7 +27442,7 @@
           <xdr:cNvPr id="101" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26443,7 +27519,7 @@
           <xdr:cNvPr id="103" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26520,7 +27596,7 @@
           <xdr:cNvPr id="44" name="テキスト ボックス 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26584,7 +27660,7 @@
           <xdr:cNvPr id="45" name="テキスト ボックス 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26647,7 +27723,7 @@
           <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26690,7 +27766,7 @@
           <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26733,7 +27809,7 @@
           <xdr:cNvPr id="52" name="テキスト ボックス 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26797,7 +27873,7 @@
           <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -26851,7 +27927,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26924,7 +28000,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27003,7 +28079,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27061,7 +28137,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27123,7 +28199,7 @@
         <xdr:cNvPr id="94" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27184,7 +28260,7 @@
         <xdr:cNvPr id="118" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27244,7 +28320,7 @@
         <xdr:cNvPr id="141" name="円/楕円 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27301,7 +28377,7 @@
         <xdr:cNvPr id="145" name="テキスト ボックス 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27376,7 +28452,7 @@
         <xdr:cNvPr id="72" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27437,7 +28513,7 @@
         <xdr:cNvPr id="73" name="円/楕円 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27499,7 +28575,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27557,7 +28633,7 @@
         <xdr:cNvPr id="76" name="円/楕円 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27619,7 +28695,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27674,7 +28750,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27747,7 +28823,7 @@
         <xdr:cNvPr id="85" name="テキスト ボックス 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27820,7 +28896,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27898,7 +28974,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27956,7 +29032,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28031,7 +29107,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28093,7 +29169,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28153,7 +29229,7 @@
         <xdr:cNvPr id="112" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28210,7 +29286,7 @@
         <xdr:cNvPr id="147" name="テキスト ボックス 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28286,7 +29362,7 @@
         <xdr:cNvPr id="155" name="円/楕円 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28348,7 +29424,7 @@
         <xdr:cNvPr id="156" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28408,7 +29484,7 @@
         <xdr:cNvPr id="157" name="円/楕円 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28465,7 +29541,7 @@
         <xdr:cNvPr id="158" name="テキスト ボックス 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28541,7 +29617,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28599,7 +29675,7 @@
         <xdr:cNvPr id="69" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28976,13 +30052,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29004,7 +30080,7 @@
     </row>
     <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.8">
       <c r="B7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -29033,7 +30109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44467B38-3F38-4E15-A533-EBE04F445011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -29042,12 +30118,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -29057,7 +30133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -29083,12 +30159,12 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
@@ -29103,7 +30179,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -29137,7 +30213,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -29401,10 +30477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:AB97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="71" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H24" zoomScale="115" zoomScaleNormal="71" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AJ39" sqref="AJ39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -29422,7 +30500,7 @@
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
@@ -29455,16 +30533,18 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="9"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C15" s="9"/>
@@ -29472,21 +30552,11 @@
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C16" s="9"/>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C62" s="12"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
     </row>
     <row r="63" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C63" s="7"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
@@ -29615,12 +30685,18 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
     </row>
     <row r="78" spans="3:22" x14ac:dyDescent="0.35">
       <c r="K78" s="7"/>
@@ -29628,13 +30704,6 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.35">
       <c r="K79" s="7"/>
@@ -29651,6 +30720,11 @@
       <c r="V79" s="7"/>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
@@ -29669,18 +30743,19 @@
       <c r="V81" s="7"/>
     </row>
     <row r="82" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="C82" s="13"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
     </row>
     <row r="83" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C83" s="13"/>
     </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C84" s="13"/>
     </row>
     <row r="88" spans="3:28" x14ac:dyDescent="0.35">
       <c r="W88" s="7"/>
@@ -29691,6 +30766,7 @@
       <c r="AB88" s="7"/>
     </row>
     <row r="89" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="W89" s="7"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
@@ -29753,12 +30829,20 @@
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
     </row>
+    <row r="98" spans="24:28" x14ac:dyDescent="0.35">
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="48" man="1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="47" max="48" man="1"/>
+    <brk id="77" max="48" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="55" max="57" man="1"/>
@@ -29768,7 +30852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W179"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -30131,7 +31215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="84" zoomScaleSheetLayoutView="100" workbookViewId="0"/>

--- a/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
+++ b/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="767" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2838,13 +2838,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>76202</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>66677</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -2860,9 +2860,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3632202" y="3467100"/>
-          <a:ext cx="12698" cy="571500"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3533775" y="5591175"/>
+          <a:ext cx="2" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3304,13 +3304,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>89178</xdr:colOff>
+      <xdr:colOff>127278</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -3327,8 +3327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6693178" y="5880100"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="6566178" y="7975600"/>
+          <a:ext cx="831572" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3433,13 +3433,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>204448</xdr:colOff>
+      <xdr:colOff>202180</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>211705</xdr:colOff>
+      <xdr:colOff>204448</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>4787</xdr:rowOff>
     </xdr:to>
@@ -3458,9 +3458,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8434048" y="8475518"/>
-          <a:ext cx="7257" cy="177969"/>
+        <a:xfrm flipH="1">
+          <a:off x="8126980" y="8666018"/>
+          <a:ext cx="2268" cy="177969"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3493,8 +3493,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>62111</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>243086</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -3512,7 +3512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7263011" y="8620125"/>
+          <a:off x="6929636" y="8810625"/>
           <a:ext cx="710900" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3568,7 +3568,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>191774</xdr:colOff>
+      <xdr:colOff>163199</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>4787</xdr:rowOff>
     </xdr:from>
@@ -3586,7 +3586,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7907024" y="8653487"/>
+          <a:off x="7592699" y="8843987"/>
           <a:ext cx="1068562" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7502,7 +7502,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>143083</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>145606</xdr:rowOff>
     </xdr:to>
@@ -7518,9 +7518,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5216519" y="9690450"/>
-          <a:ext cx="859845" cy="0"/>
+        <a:xfrm>
+          <a:off x="5010144" y="10356406"/>
+          <a:ext cx="790581" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7625,13 +7625,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>43729</xdr:colOff>
+      <xdr:colOff>43730</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>129668</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:to>
@@ -7647,9 +7647,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5203104" y="10200546"/>
-          <a:ext cx="859845" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="4996730" y="10872455"/>
+          <a:ext cx="784945" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7827,8 +7827,8 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>221739</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>142456</xdr:rowOff>
     </xdr:from>
@@ -7850,9 +7850,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2844565" y="13574086"/>
-          <a:ext cx="872787" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="2752725" y="13591756"/>
+          <a:ext cx="759770" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8097,7 +8097,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>88804</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>108400</xdr:rowOff>
     </xdr:from>
@@ -8119,9 +8119,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7569898" y="10218791"/>
-          <a:ext cx="859846" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="7296150" y="10890700"/>
+          <a:ext cx="803394" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9266,13 +9266,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>67078</xdr:rowOff>
+      <xdr:rowOff>28978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>155676</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>40239</xdr:rowOff>
+      <xdr:rowOff>2139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9287,8 +9287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333204" y="1837923"/>
-          <a:ext cx="920359" cy="912246"/>
+          <a:off x="4210050" y="3953278"/>
+          <a:ext cx="898626" cy="925661"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9324,13 +9324,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>168475</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>179938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>254414</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>179938</xdr:rowOff>
     </xdr:to>
@@ -9346,9 +9346,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6795729" y="2889868"/>
-          <a:ext cx="850622" cy="0"/>
+        <a:xfrm>
+          <a:off x="6638925" y="5056738"/>
+          <a:ext cx="771525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9382,15 +9382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>226964</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171348</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>58009</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171348</xdr:rowOff>
+      <xdr:colOff>26832</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>8087</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9401,12 +9401,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="176" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9148267" y="2881278"/>
-          <a:ext cx="850622" cy="0"/>
+        <a:xfrm>
+          <a:off x="8886825" y="5075387"/>
+          <a:ext cx="798357" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9516,7 +9518,7 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>26832</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1050416" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -9532,7 +9534,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9967712" y="2709930"/>
+          <a:off x="9685182" y="4895850"/>
           <a:ext cx="1050416" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9876,9 +9878,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>149163</xdr:colOff>
+      <xdr:colOff>177738</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>46759</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
@@ -9894,7 +9896,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4792601" y="4181800"/>
+          <a:off x="4635438" y="4352059"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9947,15 +9949,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>174401</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>67078</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>187504</xdr:colOff>
+      <xdr:colOff>206555</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>110839</xdr:rowOff>
+      <xdr:rowOff>15590</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9966,18 +9968,16 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4252711" y="2025740"/>
-          <a:ext cx="1032680" cy="982845"/>
+          <a:off x="4181475" y="4133850"/>
+          <a:ext cx="978080" cy="949040"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 66888"/>
+            <a:gd name="adj1" fmla="val 68503"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -10009,9 +10009,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>159734</xdr:colOff>
+      <xdr:colOff>235934</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>95337</xdr:rowOff>
+      <xdr:rowOff>142962</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
@@ -10027,7 +10027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4545203" y="4927290"/>
+          <a:off x="4445984" y="5210262"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10336,7 +10336,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>230276</xdr:colOff>
+      <xdr:colOff>144551</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>157632</xdr:rowOff>
     </xdr:from>
@@ -10354,7 +10354,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1778089" y="6874741"/>
+          <a:off x="1630451" y="7129932"/>
           <a:ext cx="904928" cy="492443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11216,15 +11216,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196725</xdr:colOff>
+      <xdr:colOff>168150</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>149907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>69022</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>151848</xdr:rowOff>
+      <xdr:rowOff>149907</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11239,8 +11239,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="721290" y="10102842"/>
-          <a:ext cx="659145" cy="1941"/>
+          <a:off x="663450" y="10170207"/>
+          <a:ext cx="546225" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11359,15 +11359,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>21318</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>188427</xdr:rowOff>
+      <xdr:colOff>49893</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36027</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>155673</xdr:colOff>
+      <xdr:colOff>184248</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>140963</xdr:rowOff>
+      <xdr:rowOff>179063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11382,8 +11382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="545883" y="4536797"/>
-          <a:ext cx="396638" cy="339057"/>
+          <a:off x="545193" y="4722327"/>
+          <a:ext cx="382005" cy="333536"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11421,15 +11421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219637</xdr:colOff>
+      <xdr:colOff>240896</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>96630</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>234674</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>188427</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>36027</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11446,8 +11446,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="744202" y="4058478"/>
-          <a:ext cx="15037" cy="478319"/>
+          <a:off x="736196" y="4257675"/>
+          <a:ext cx="6754" cy="464652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11741,7 +11741,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>67926</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>77162</xdr:rowOff>
     </xdr:to>
@@ -11757,9 +11757,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2862782" y="13122271"/>
-          <a:ext cx="877101" cy="0"/>
+        <a:xfrm>
+          <a:off x="2716456" y="13145462"/>
+          <a:ext cx="779219" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13990,13 +13990,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>126899</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>117872</xdr:rowOff>
+      <xdr:rowOff>117873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>174262</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>121820</xdr:rowOff>
+      <xdr:rowOff>112297</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -14011,10 +14011,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5079899" y="7471172"/>
-          <a:ext cx="3762113" cy="1146948"/>
+          <a:off x="5079899" y="7471173"/>
+          <a:ext cx="3762113" cy="1137424"/>
           <a:chOff x="6950880" y="2455400"/>
-          <a:chExt cx="3850560" cy="1133287"/>
+          <a:chExt cx="3850560" cy="1123876"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -14107,7 +14107,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9274357" y="2468815"/>
+            <a:off x="9274357" y="2459404"/>
             <a:ext cx="1527083" cy="1119872"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -14240,12 +14240,15 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="187" idx="3"/>
+            <a:endCxn id="193" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8461218" y="2999109"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8480560" y="3015336"/>
+            <a:ext cx="793797" cy="4004"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -14341,13 +14344,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>216809</xdr:colOff>
+      <xdr:colOff>150133</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>8851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>12902</xdr:colOff>
+      <xdr:colOff>12901</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>11847</xdr:rowOff>
     </xdr:to>
@@ -14366,14 +14369,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2274209" y="3704551"/>
-          <a:ext cx="310443" cy="2996"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2378983" y="6219151"/>
+          <a:ext cx="358068" cy="2996"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -14463,10 +14464,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>219269</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>194</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>70424</xdr:rowOff>
+      <xdr:rowOff>156149</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504757" cy="225703"/>
     <xdr:sp macro="" textlink="">
@@ -14482,7 +14483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8963219" y="5671124"/>
+          <a:off x="8915594" y="8271449"/>
           <a:ext cx="1504757" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16074,9 +16075,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>119744</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>135398</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16091,8 +16092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4137933" y="1748298"/>
-          <a:ext cx="868136" cy="1320800"/>
+          <a:off x="4233183" y="4262898"/>
+          <a:ext cx="862692" cy="1175877"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16125,16 +16126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>102961</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>26761</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>143562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>154215</xdr:colOff>
+      <xdr:colOff>230415</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>109998</xdr:rowOff>
+      <xdr:rowOff>90948</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16149,8 +16150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398736" y="5363262"/>
-          <a:ext cx="384629" cy="347436"/>
+          <a:off x="4313011" y="7858812"/>
+          <a:ext cx="375104" cy="347436"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16187,16 +16188,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>154215</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230415</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>113166</xdr:rowOff>
+      <xdr:rowOff>107730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>126899</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>126780</xdr:rowOff>
+      <xdr:rowOff>113059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16207,12 +16208,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="270" idx="6"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4763086" y="7190343"/>
-          <a:ext cx="228732" cy="13614"/>
+        <a:xfrm>
+          <a:off x="4688115" y="8032530"/>
+          <a:ext cx="391784" cy="5329"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16246,13 +16250,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4083</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>156262</xdr:rowOff>
+      <xdr:rowOff>175312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>112486</xdr:colOff>
+      <xdr:colOff>179161</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:to>
@@ -16271,8 +16275,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4118883" y="4042462"/>
-          <a:ext cx="365578" cy="19050"/>
+          <a:off x="4248150" y="6576112"/>
+          <a:ext cx="388711" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16306,13 +16310,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>112486</xdr:colOff>
+      <xdr:colOff>179161</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>1594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>243569</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>62594</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>158530</xdr:rowOff>
     </xdr:to>
@@ -16329,8 +16333,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4484461" y="3887794"/>
-          <a:ext cx="388258" cy="347436"/>
+          <a:off x="4636861" y="6402394"/>
+          <a:ext cx="378733" cy="347436"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16440,13 +16444,13 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>174262</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>126684</xdr:rowOff>
+      <xdr:rowOff>117111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>162379</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>124279</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>128820</xdr:rowOff>
+      <xdr:rowOff>119295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16464,8 +16468,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8918212" y="5536884"/>
-          <a:ext cx="245292" cy="2136"/>
+          <a:off x="8842012" y="8041911"/>
+          <a:ext cx="445317" cy="2184"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16498,16 +16502,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>162379</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>124279</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>146736</xdr:rowOff>
+      <xdr:rowOff>137211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>32659</xdr:colOff>
+      <xdr:colOff>242209</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>110904</xdr:rowOff>
+      <xdr:rowOff>101379</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16522,8 +16526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9163504" y="5366436"/>
-          <a:ext cx="384630" cy="345168"/>
+          <a:off x="9287329" y="7871511"/>
+          <a:ext cx="365580" cy="345168"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16561,15 +16565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83458</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>148442</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>37111</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>159891</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16584,8 +16588,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2421413" y="3624448"/>
-          <a:ext cx="213425" cy="11449"/>
+          <a:off x="2505075" y="4486275"/>
+          <a:ext cx="238125" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16619,15 +16623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213179</xdr:colOff>
+      <xdr:colOff>156029</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>157623</xdr:rowOff>
+      <xdr:rowOff>186198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>83458</xdr:colOff>
+      <xdr:colOff>26308</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>124058</xdr:rowOff>
+      <xdr:rowOff>152633</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16642,8 +16646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013404" y="1757823"/>
-          <a:ext cx="384629" cy="347435"/>
+          <a:off x="2137229" y="4300998"/>
+          <a:ext cx="365579" cy="347435"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17348,13 +17352,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>25633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>216808</xdr:colOff>
+      <xdr:colOff>150133</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>182569</xdr:rowOff>
     </xdr:to>
@@ -17371,8 +17375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="3530833"/>
-          <a:ext cx="388258" cy="347436"/>
+          <a:off x="2000250" y="6045433"/>
+          <a:ext cx="378733" cy="347436"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -18465,13 +18469,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>43859</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>140151</xdr:rowOff>
+      <xdr:rowOff>140152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>91223</xdr:colOff>
+      <xdr:colOff>100748</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>144098</xdr:rowOff>
+      <xdr:rowOff>134575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -18486,10 +18490,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4749209" y="13779951"/>
-          <a:ext cx="3762114" cy="1146947"/>
+          <a:off x="4749209" y="13779952"/>
+          <a:ext cx="3771639" cy="1137423"/>
           <a:chOff x="6950880" y="2455400"/>
-          <a:chExt cx="3850560" cy="1133287"/>
+          <a:chExt cx="3860309" cy="1123876"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -18582,7 +18586,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9274357" y="2468815"/>
+            <a:off x="9284106" y="2459404"/>
             <a:ext cx="1527083" cy="1119872"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -18715,12 +18719,15 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="311" idx="3"/>
+            <a:endCxn id="312" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8461218" y="3049298"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8480560" y="3015337"/>
+            <a:ext cx="803546" cy="4004"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -19069,7 +19076,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>16156</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>67359</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
@@ -19090,10 +19097,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4721506" y="11611659"/>
-          <a:ext cx="6147624" cy="1226563"/>
-          <a:chOff x="6951752" y="1064475"/>
-          <a:chExt cx="6293220" cy="1212956"/>
+          <a:off x="4721506" y="11703060"/>
+          <a:ext cx="6147624" cy="1135162"/>
+          <a:chOff x="6951752" y="1154862"/>
+          <a:chExt cx="6293220" cy="1122569"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -19337,7 +19344,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="11023439" y="1331174"/>
+            <a:off x="11042940" y="1415948"/>
             <a:ext cx="511743" cy="454825"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19447,7 +19454,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8642189" y="1064475"/>
+            <a:off x="8710443" y="1224604"/>
             <a:ext cx="511743" cy="433189"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19510,9 +19517,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8477161" y="1433142"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8505057" y="1536755"/>
+            <a:ext cx="822726" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -19554,7 +19561,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8654940" y="1524909"/>
+            <a:off x="8752446" y="1637941"/>
             <a:ext cx="511743" cy="424064"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -19616,9 +19623,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="8456009" y="1900896"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm flipH="1">
+            <a:off x="8495307" y="1947993"/>
+            <a:ext cx="811325" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -19730,7 +19737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>151358</xdr:colOff>
+      <xdr:colOff>218035</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>12932</xdr:rowOff>
     </xdr:to>
@@ -19748,9 +19755,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4714962" y="9829800"/>
-          <a:ext cx="6085346" cy="1155932"/>
+          <a:ext cx="6152023" cy="1155932"/>
           <a:chOff x="4573483" y="4099599"/>
-          <a:chExt cx="6235700" cy="1142326"/>
+          <a:chExt cx="6304024" cy="1142326"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -19920,7 +19927,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9286664" y="4112304"/>
+            <a:off x="9354988" y="4112304"/>
             <a:ext cx="1522519" cy="1116921"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -19997,7 +20004,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6232235" y="4175124"/>
+            <a:off x="6320078" y="4109234"/>
             <a:ext cx="511743" cy="451438"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -20061,7 +20068,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6232235" y="4582434"/>
+            <a:off x="6349359" y="4591847"/>
             <a:ext cx="511743" cy="433079"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -20124,7 +20131,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="6084284" y="4929846"/>
+            <a:off x="6084284" y="4920433"/>
             <a:ext cx="850622" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -20166,9 +20173,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6105436" y="4566867"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="6105436" y="4416260"/>
+            <a:ext cx="820199" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -20210,7 +20217,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8613485" y="4222749"/>
+            <a:off x="8740370" y="4316878"/>
             <a:ext cx="511743" cy="441454"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -20270,12 +20277,15 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="335" idx="3"/>
+            <a:endCxn id="336" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8448586" y="4633542"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8446983" y="4658062"/>
+            <a:ext cx="908006" cy="12702"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -20531,15 +20541,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>193186</xdr:colOff>
+      <xdr:colOff>155086</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>153470</xdr:rowOff>
+      <xdr:rowOff>143945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>71175</xdr:colOff>
+      <xdr:colOff>33075</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>119907</xdr:rowOff>
+      <xdr:rowOff>110382</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20554,8 +20564,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4089777" y="14205938"/>
-          <a:ext cx="397534" cy="337540"/>
+          <a:off x="4117486" y="14164745"/>
+          <a:ext cx="373289" cy="347437"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -20592,15 +20602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>71175</xdr:colOff>
+      <xdr:colOff>33075</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>135513</xdr:rowOff>
+      <xdr:rowOff>127164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>43859</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>136689</xdr:rowOff>
+      <xdr:rowOff>135338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20617,9 +20627,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4487311" y="14373532"/>
-          <a:ext cx="232457" cy="1176"/>
+        <a:xfrm>
+          <a:off x="4490775" y="14338464"/>
+          <a:ext cx="258434" cy="8174"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20653,15 +20663,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>170508</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>178541</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>7091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29446</xdr:colOff>
+      <xdr:colOff>96121</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>3862</xdr:rowOff>
+      <xdr:rowOff>7091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20678,8 +20688,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3663008" y="12243541"/>
-          <a:ext cx="357867" cy="6750"/>
+          <a:off x="3914775" y="12884891"/>
+          <a:ext cx="391396" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20713,13 +20723,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29446</xdr:colOff>
+      <xdr:colOff>96121</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>23873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>151688</xdr:colOff>
+      <xdr:colOff>218363</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>180808</xdr:rowOff>
     </xdr:to>
@@ -20736,8 +20746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4020875" y="12088873"/>
-          <a:ext cx="371706" cy="338364"/>
+          <a:off x="4306171" y="12711173"/>
+          <a:ext cx="369892" cy="347435"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -20845,15 +20855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>91223</xdr:colOff>
+      <xdr:colOff>100748</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>148962</xdr:rowOff>
+      <xdr:rowOff>139390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>79339</xdr:colOff>
+      <xdr:colOff>117439</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>151098</xdr:rowOff>
+      <xdr:rowOff>141574</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20871,8 +20881,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8323544" y="13665391"/>
-          <a:ext cx="237581" cy="2136"/>
+          <a:off x="8520848" y="14350690"/>
+          <a:ext cx="264341" cy="2184"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20906,15 +20916,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>79339</xdr:colOff>
+      <xdr:colOff>117439</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>169014</xdr:rowOff>
+      <xdr:rowOff>159489</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>199084</xdr:colOff>
+      <xdr:colOff>237184</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>133183</xdr:rowOff>
+      <xdr:rowOff>123658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20929,8 +20939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8561125" y="13504014"/>
-          <a:ext cx="369209" cy="327026"/>
+          <a:off x="8785189" y="14180289"/>
+          <a:ext cx="367395" cy="345169"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -21091,15 +21101,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>75711</xdr:colOff>
+      <xdr:colOff>73105</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>72404</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>75711</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122297</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>17522</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21115,9 +21125,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3318747" y="10504547"/>
-          <a:ext cx="0" cy="231321"/>
+        <a:xfrm flipH="1">
+          <a:off x="3540205" y="11010900"/>
+          <a:ext cx="2606" cy="360422"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -21226,7 +21236,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>148780</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>32498</xdr:rowOff>
+      <xdr:rowOff>70598</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="511743" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -21242,7 +21252,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3391816" y="10464641"/>
+          <a:off x="3615880" y="11043398"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21297,7 +21307,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>131278</xdr:colOff>
+      <xdr:colOff>169378</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>11627</xdr:rowOff>
     </xdr:from>
@@ -21315,7 +21325,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3623778" y="11895198"/>
+          <a:off x="3884128" y="12508427"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21504,14 +21514,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133545</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122297</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>17522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>12665</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>88734</xdr:rowOff>
+      <xdr:rowOff>174459</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21526,8 +21536,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3127116" y="10735868"/>
-          <a:ext cx="378049" cy="329295"/>
+          <a:off x="3352995" y="11371322"/>
+          <a:ext cx="374420" cy="347437"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -22407,15 +22417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>40639</xdr:colOff>
+      <xdr:colOff>40638</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>83001</xdr:rowOff>
+      <xdr:rowOff>83003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>78478</xdr:colOff>
+      <xdr:colOff>88002</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>86948</xdr:rowOff>
+      <xdr:rowOff>77426</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -22430,10 +22440,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4745989" y="20009301"/>
-          <a:ext cx="3752589" cy="1146947"/>
+          <a:off x="4745988" y="20009303"/>
+          <a:ext cx="3762114" cy="1137423"/>
           <a:chOff x="6950880" y="2455400"/>
-          <a:chExt cx="3850560" cy="1133287"/>
+          <a:chExt cx="3860334" cy="1123876"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -22526,7 +22536,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9274357" y="2468815"/>
+            <a:off x="9284131" y="2459404"/>
             <a:ext cx="1527083" cy="1119872"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -22603,7 +22613,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8586273" y="2622160"/>
+            <a:off x="8664462" y="2650395"/>
             <a:ext cx="491886" cy="401124"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -22659,12 +22669,15 @@
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="448" idx="3"/>
+            <a:endCxn id="449" idx="1"/>
+          </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8461218" y="3011656"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8480560" y="3015337"/>
+            <a:ext cx="803571" cy="4004"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -22884,7 +22897,7 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>124169</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>35553</xdr:rowOff>
+      <xdr:rowOff>73653</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504757" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -22900,7 +22913,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8356490" y="19357696"/>
+          <a:off x="8544269" y="20761953"/>
           <a:ext cx="1504757" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23692,13 +23705,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>6392</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>121223</xdr:rowOff>
+      <xdr:rowOff>133668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>138613</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>146283</xdr:rowOff>
+      <xdr:rowOff>146284</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -23713,10 +23726,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4711742" y="16047023"/>
-          <a:ext cx="6075821" cy="1168060"/>
-          <a:chOff x="4573483" y="4087298"/>
-          <a:chExt cx="6235700" cy="1154627"/>
+          <a:off x="4711742" y="16059468"/>
+          <a:ext cx="6075821" cy="1155616"/>
+          <a:chOff x="4573483" y="4099599"/>
+          <a:chExt cx="6235700" cy="1142326"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -23963,7 +23976,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6244350" y="4087298"/>
+            <a:off x="6244350" y="4153206"/>
             <a:ext cx="511743" cy="429103"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -24133,7 +24146,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="6105436" y="4566867"/>
+            <a:off x="6105436" y="4519789"/>
             <a:ext cx="850622" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -24497,15 +24510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>189966</xdr:colOff>
+      <xdr:colOff>123291</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>108690</xdr:rowOff>
+      <xdr:rowOff>99165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67955</xdr:colOff>
+      <xdr:colOff>1280</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>75127</xdr:rowOff>
+      <xdr:rowOff>65602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24520,8 +24533,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931930" y="19067976"/>
-          <a:ext cx="376918" cy="329294"/>
+          <a:off x="4085691" y="20406465"/>
+          <a:ext cx="373289" cy="347437"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -24559,15 +24572,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67955</xdr:colOff>
+      <xdr:colOff>1280</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>78294</xdr:rowOff>
+      <xdr:rowOff>78186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>40639</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>91908</xdr:rowOff>
+      <xdr:rowOff>82384</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24585,8 +24598,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4308848" y="19219008"/>
-          <a:ext cx="222148" cy="13614"/>
+          <a:off x="4458980" y="20575986"/>
+          <a:ext cx="287009" cy="4198"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24620,15 +24633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>157763</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>121391</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>26226</xdr:colOff>
+      <xdr:colOff>83376</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>137212</xdr:rowOff>
+      <xdr:rowOff>159491</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24645,8 +24658,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3794581" y="18577625"/>
-          <a:ext cx="388009" cy="15821"/>
+          <a:off x="3905250" y="19126200"/>
+          <a:ext cx="388176" cy="7091"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24680,15 +24693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>26226</xdr:colOff>
+      <xdr:colOff>83376</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>157223</xdr:rowOff>
+      <xdr:rowOff>176273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>138943</xdr:colOff>
+      <xdr:colOff>196093</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>123658</xdr:rowOff>
+      <xdr:rowOff>142708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24703,8 +24716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4182590" y="18427905"/>
-          <a:ext cx="372489" cy="337539"/>
+          <a:off x="4293426" y="18959573"/>
+          <a:ext cx="360367" cy="347435"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -24811,15 +24824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>78478</xdr:colOff>
+      <xdr:colOff>88002</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>91812</xdr:rowOff>
+      <xdr:rowOff>82241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>76119</xdr:colOff>
+      <xdr:colOff>123744</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>93948</xdr:rowOff>
+      <xdr:rowOff>84424</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24837,8 +24850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8310799" y="19232526"/>
-          <a:ext cx="247106" cy="2136"/>
+          <a:off x="8508102" y="20580041"/>
+          <a:ext cx="283392" cy="2183"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24872,15 +24885,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>76119</xdr:colOff>
+      <xdr:colOff>123744</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>111864</xdr:rowOff>
+      <xdr:rowOff>102339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>195864</xdr:colOff>
+      <xdr:colOff>243489</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>76033</xdr:rowOff>
+      <xdr:rowOff>66508</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24895,8 +24908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8557905" y="19071150"/>
-          <a:ext cx="369209" cy="327026"/>
+          <a:off x="8791494" y="20409639"/>
+          <a:ext cx="367395" cy="345169"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -24934,9 +24947,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>192770</xdr:colOff>
+      <xdr:colOff>175857</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>137935</xdr:rowOff>
+      <xdr:rowOff>151350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -24954,13 +24967,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="491" idx="6"/>
           <a:endCxn id="442" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939020" y="15468649"/>
-          <a:ext cx="227611" cy="19362"/>
+          <a:off x="2157057" y="16648650"/>
+          <a:ext cx="242710" cy="5947"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24994,13 +25008,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>75994</xdr:colOff>
+      <xdr:colOff>56944</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>165817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>194907</xdr:colOff>
+      <xdr:colOff>175857</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>136882</xdr:rowOff>
     </xdr:to>
@@ -25017,8 +25031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1634630" y="16024323"/>
-          <a:ext cx="378686" cy="342169"/>
+          <a:off x="1790494" y="16472617"/>
+          <a:ext cx="366563" cy="352065"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -25262,9 +25276,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>118533</xdr:colOff>
+      <xdr:colOff>156633</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>135905</xdr:rowOff>
+      <xdr:rowOff>154955</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="511743" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -25280,7 +25294,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3611033" y="17462334"/>
+          <a:off x="3871383" y="18747755"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26182,14 +26196,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88839</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12639</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>145981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88960</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12760</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>148452</xdr:rowOff>
     </xdr:to>
@@ -26206,8 +26220,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2167021" y="21806078"/>
-          <a:ext cx="1558757" cy="1115783"/>
+          <a:off x="2489139" y="21977281"/>
+          <a:ext cx="1486021" cy="1145471"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -26274,14 +26288,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>182165</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>105965</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>172055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>182719</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>106519</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>165031</xdr:rowOff>
     </xdr:to>
@@ -26298,7 +26312,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4639865" y="21241355"/>
+          <a:off x="4811315" y="22003355"/>
           <a:ext cx="1486454" cy="1135976"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -26367,7 +26381,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>72795</xdr:colOff>
+      <xdr:colOff>244245</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>123702</xdr:rowOff>
     </xdr:from>
@@ -26385,7 +26399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3709613" y="21783799"/>
+          <a:off x="3958995" y="21955002"/>
           <a:ext cx="904928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26408,7 +26422,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -26437,8 +26451,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>117425</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>41225</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>159590</xdr:rowOff>
     </xdr:from>
@@ -26456,7 +26470,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3754243" y="22376343"/>
+          <a:off x="4003625" y="22562390"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -26479,7 +26493,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -26507,14 +26521,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>86680</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10480</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>17991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>176432</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>100232</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>17991</xdr:rowOff>
     </xdr:to>
@@ -26530,9 +26544,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3723498" y="22049192"/>
-          <a:ext cx="869070" cy="0"/>
+        <a:xfrm>
+          <a:off x="3972880" y="22230291"/>
+          <a:ext cx="832702" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -26565,14 +26579,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>102913</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26713</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>34895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>192665</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116465</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>34895</xdr:rowOff>
     </xdr:to>
@@ -26588,9 +26602,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3739731" y="22622752"/>
-          <a:ext cx="869070" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="3989113" y="22818695"/>
+          <a:ext cx="832702" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -26723,13 +26737,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>15680</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>125817</xdr:rowOff>
+      <xdr:rowOff>163917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142006</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>92251</xdr:rowOff>
+      <xdr:rowOff>130351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26744,8 +26758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1574316" y="22157018"/>
-          <a:ext cx="386099" cy="337538"/>
+          <a:off x="1749230" y="22376217"/>
+          <a:ext cx="373976" cy="347434"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -26785,13 +26799,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>142006</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>104608</xdr:rowOff>
+      <xdr:rowOff>147134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>120866</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12639</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>109034</xdr:rowOff>
+      <xdr:rowOff>147217</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -26804,12 +26818,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="374" idx="6"/>
+          <a:endCxn id="256" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1960415" y="22321361"/>
-          <a:ext cx="238633" cy="4426"/>
+        <a:xfrm>
+          <a:off x="2123206" y="22549934"/>
+          <a:ext cx="365933" cy="83"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -27629,14 +27644,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3114</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12639</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>31681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>3235</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12760</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>34152</xdr:rowOff>
     </xdr:to>
@@ -27653,7 +27668,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2231964" y="23386981"/>
+          <a:off x="2489139" y="24148981"/>
           <a:ext cx="1486021" cy="1145471"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -27821,13 +27836,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>177605</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>11517</xdr:rowOff>
+      <xdr:rowOff>49617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56281</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>168451</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>16051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27842,7 +27857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663505" y="23747817"/>
+          <a:off x="1663505" y="24547917"/>
           <a:ext cx="373976" cy="347434"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -27882,14 +27897,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>56281</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>180808</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>32834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35141</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>185234</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12639</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>32917</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -27902,12 +27917,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="229" idx="6"/>
+          <a:endCxn id="227" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2037481" y="23917108"/>
-          <a:ext cx="226510" cy="4426"/>
+        <a:xfrm>
+          <a:off x="2037481" y="24721634"/>
+          <a:ext cx="451658" cy="83"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -27940,12 +27956,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15645</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25170</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>190377</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="994247" cy="359073"/>
+    <xdr:ext cx="877997" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="231" name="テキスト ボックス 230">
@@ -27959,8 +27975,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3730395" y="23355177"/>
-          <a:ext cx="994247" cy="359073"/>
+          <a:off x="3987570" y="24117177"/>
+          <a:ext cx="877997" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27989,9 +28005,12 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>お問い合わせ種類</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>お問い合わせ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>ID</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -28014,8 +28033,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>231725</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241250</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>140540</xdr:rowOff>
     </xdr:from>
@@ -28033,7 +28052,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3946475" y="24067340"/>
+          <a:off x="4203650" y="24829340"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28084,14 +28103,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>29530</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>39055</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>189441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>189441</xdr:rowOff>
     </xdr:to>
@@ -28108,7 +28127,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3744280" y="23735241"/>
+          <a:off x="4001455" y="24497241"/>
           <a:ext cx="1084895" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28142,14 +28161,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>17188</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26713</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>15845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>15845</xdr:rowOff>
     </xdr:to>
@@ -28166,7 +28185,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3731938" y="24323645"/>
+          <a:off x="3989113" y="25085645"/>
           <a:ext cx="1078187" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28200,14 +28219,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145989</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155514</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>31681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>146110</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>155635</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>34152</xdr:rowOff>
     </xdr:to>
@@ -28224,7 +28243,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4851339" y="23386981"/>
+          <a:off x="5108514" y="24148981"/>
           <a:ext cx="1486021" cy="1145471"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -28828,7 +28847,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>168165</xdr:colOff>
+      <xdr:colOff>139590</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>172359</xdr:rowOff>
     </xdr:from>
@@ -28846,7 +28865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2225565" y="3868059"/>
+          <a:off x="2120790" y="6192159"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29100,7 +29119,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>169080</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>51276</xdr:rowOff>
+      <xdr:rowOff>55100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -29121,10 +29140,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4874430" y="7404576"/>
-          <a:ext cx="3707685" cy="1137111"/>
-          <a:chOff x="6950880" y="2451576"/>
-          <a:chExt cx="3850560" cy="1137111"/>
+          <a:off x="4874430" y="7408400"/>
+          <a:ext cx="3707685" cy="1133287"/>
+          <a:chOff x="6950880" y="2455400"/>
+          <a:chExt cx="3850560" cy="1133287"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -29294,7 +29313,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8586273" y="2451576"/>
+            <a:off x="8645626" y="2699226"/>
             <a:ext cx="531940" cy="359073"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -29353,9 +29372,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="8461218" y="2810895"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="8476716" y="3020445"/>
+            <a:ext cx="791364" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -29449,8 +29468,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
@@ -29476,8 +29495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2352675" y="3810001"/>
-          <a:ext cx="306814" cy="2995"/>
+          <a:off x="2162175" y="6134101"/>
+          <a:ext cx="402064" cy="2995"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -29572,8 +29591,8 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>207022</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>191294</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504757" cy="225703"/>
     <xdr:sp macro="" textlink="">
@@ -29589,7 +29608,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9074343" y="5860937"/>
+          <a:off x="8627122" y="8182769"/>
           <a:ext cx="1504757" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29643,14 +29662,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>66586</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166317</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>145683</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166317</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -29665,8 +29684,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4181386" y="1957017"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="4028986" y="3928692"/>
+          <a:ext cx="822047" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -30252,9 +30271,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="8456009" y="1900896"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm flipH="1">
+            <a:off x="8497644" y="1900896"/>
+            <a:ext cx="808987" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -30633,7 +30652,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6232235" y="4175125"/>
+            <a:off x="6311334" y="4175125"/>
             <a:ext cx="511743" cy="359073"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -30697,7 +30716,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6232235" y="4582434"/>
+            <a:off x="6360772" y="4611009"/>
             <a:ext cx="511743" cy="359073"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -30802,9 +30821,9 @@
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6105436" y="4566867"/>
-            <a:ext cx="850622" cy="0"/>
+          <a:xfrm>
+            <a:off x="6105436" y="4509717"/>
+            <a:ext cx="839501" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -30846,7 +30865,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8613485" y="4245162"/>
+            <a:off x="8672810" y="4388037"/>
             <a:ext cx="511743" cy="359073"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -30910,7 +30929,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="8448586" y="4633542"/>
+            <a:off x="8448586" y="4709742"/>
             <a:ext cx="850622" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -31099,9 +31118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -31116,8 +31135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="2295525"/>
-          <a:ext cx="857250" cy="923925"/>
+          <a:off x="4038600" y="4238625"/>
+          <a:ext cx="838200" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31151,15 +31170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31174,8 +31193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448174" y="5295900"/>
-          <a:ext cx="381001" cy="342900"/>
+          <a:off x="4229099" y="7800975"/>
+          <a:ext cx="371476" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -31213,7 +31232,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>43536</xdr:rowOff>
     </xdr:from>
@@ -31221,7 +31240,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>169080</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -31239,8 +31258,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4829175" y="5453736"/>
-          <a:ext cx="226230" cy="13614"/>
+          <a:off x="4600575" y="7968336"/>
+          <a:ext cx="273855" cy="4089"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31274,13 +31293,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -31299,8 +31318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4171950" y="5886450"/>
-          <a:ext cx="380999" cy="0"/>
+          <a:off x="4048125" y="6457950"/>
+          <a:ext cx="419099" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31333,14 +31352,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -31357,8 +31376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552949" y="5715000"/>
-          <a:ext cx="381001" cy="342900"/>
+          <a:off x="4467224" y="6286500"/>
+          <a:ext cx="361951" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -31468,11 +31487,11 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>162015</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>57054</xdr:rowOff>
+      <xdr:rowOff>56951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>146503</xdr:colOff>
+      <xdr:colOff>241753</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>59190</xdr:rowOff>
     </xdr:to>
@@ -31492,8 +31511,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9029336" y="5726697"/>
-          <a:ext cx="245292" cy="2136"/>
+          <a:off x="8582115" y="7981751"/>
+          <a:ext cx="327388" cy="2239"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31527,13 +31546,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>146503</xdr:colOff>
+      <xdr:colOff>241753</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>39006</xdr:rowOff>
     </xdr:to>
@@ -31550,8 +31569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9274628" y="5556249"/>
-          <a:ext cx="384630" cy="345168"/>
+          <a:off x="8909503" y="7813674"/>
+          <a:ext cx="358323" cy="340632"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -31588,16 +31607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -31608,12 +31627,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="6"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="2305050"/>
-          <a:ext cx="219074" cy="9525"/>
+          <a:off x="2209800" y="4486275"/>
+          <a:ext cx="342900" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31646,16 +31667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31670,8 +31691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095499" y="2114550"/>
-          <a:ext cx="381001" cy="342900"/>
+          <a:off x="1838324" y="4314825"/>
+          <a:ext cx="371476" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -31709,15 +31730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -31734,8 +31755,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3819525" y="2762250"/>
-          <a:ext cx="0" cy="238125"/>
+          <a:off x="3681412" y="4695825"/>
+          <a:ext cx="0" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -31843,8 +31864,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>40181</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171912</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38562</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="511743" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -31860,7 +31881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3897806" y="2724612"/>
+          <a:off x="3754931" y="4724862"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31917,7 +31938,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="511743" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -31933,7 +31954,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4143375" y="5534025"/>
+          <a:off x="3990975" y="6076950"/>
           <a:ext cx="511743" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -32122,14 +32143,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -32144,8 +32165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3629024" y="3000375"/>
-          <a:ext cx="381001" cy="342900"/>
+          <a:off x="3495674" y="5076825"/>
+          <a:ext cx="371476" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -32376,13 +32397,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -32399,8 +32420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971674" y="3638550"/>
-          <a:ext cx="381001" cy="342900"/>
+          <a:off x="1800224" y="5962650"/>
+          <a:ext cx="361951" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -33364,7 +33385,7 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -33442,8 +33463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI6" sqref="AI6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -33798,8 +33819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -34174,7 +34195,7 @@
   <dimension ref="C2:X183"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS17" sqref="AS17"/>
+      <selection activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -34537,9 +34558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="84" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="84" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>

--- a/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
+++ b/05_基本設計書_画面遷移図(※要追記)_2.0.xlsx
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="767"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="2" r:id="rId1"/>
+    <sheet name="表紙" sheetId="37" r:id="rId1"/>
     <sheet name="注意事項" sheetId="36" r:id="rId2"/>
     <sheet name="画面遷移図(非会員)" sheetId="22" r:id="rId3"/>
-    <sheet name="画面遷移図(一般会員)" sheetId="31" r:id="rId4"/>
+    <sheet name="画面遷移図(一般会員)" sheetId="38" r:id="rId4"/>
     <sheet name="画面遷移図(運用管理者)" sheetId="32" r:id="rId5"/>
     <sheet name="画面遷移図(システム管理者)" sheetId="35" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'画面遷移図(システム管理者)'!$A$1:$AS$47</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$77</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'画面遷移図(一般会員)'!$A$1:$AW$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'画面遷移図(運用管理者)'!$A$1:$AV$136</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'画面遷移図(非会員)'!$A$1:$AL$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'画面遷移図(一般会員)'!$1:$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>関係者外秘</t>
     <rPh sb="0" eb="3">
@@ -65,10 +65,6 @@
     <rPh sb="5" eb="7">
       <t>エンシュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Copyright © 2017 株式会社システムシェアード. All rights reserved.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -405,10 +401,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>・ログインに成功すると、2-1-1-2 トップ画面が表示される</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>＜一般会員が利用できる画面の共通事項＞</t>
     <rPh sb="1" eb="3">
       <t>イッパン</t>
@@ -660,10 +652,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>・ナビゲーションバーには、トップ(2-1-1-2トップ画面)、新着一覧(2-2-1-2商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)、</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>　注文一覧(5-1-1-2注文一覧画面)、お気に入り一覧(7-1-1-1お気に入り一覧画面)へのリンクが表示される</t>
     <rPh sb="1" eb="3">
       <t>チュウモン</t>
@@ -765,6 +753,43 @@
   <si>
     <t>・ヘッダには、1-1-1-1ログイン画面、6-3-1-1会員登録入力画面へのリンクが表示される</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var.3.0　花より漢気チーム　更新日:06/08　編集者:五十嵐　侑瑞樹　</t>
+    <rPh sb="8" eb="9">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オトコギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>コウシンビ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヘンシュウシャ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>イカラシ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copyright © 2017 株式会社システムシェアード. All rights reserved.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインに成功すると、2-1-1-2 トップ画面が表示される</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>・ナビゲーションバーには、トップ(2-1-1-2トップ画面)、新着一覧(2-2-1-2商品一覧画面)、買い物かご(4-1-1-2買い物かご画面)、</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -945,7 +970,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,6 +992,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1012,7 +1040,7 @@
         <xdr:cNvPr id="274" name="カギ線コネクタ 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1073,7 +1101,7 @@
         <xdr:cNvPr id="2" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1201,7 @@
         <xdr:cNvPr id="5" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1293,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1398,7 @@
         <xdr:cNvPr id="36" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1511,7 @@
         <xdr:cNvPr id="70" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1603,7 @@
         <xdr:cNvPr id="78" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1695,7 @@
         <xdr:cNvPr id="79" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1787,7 @@
         <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1848,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1909,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 288">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1967,7 @@
         <xdr:cNvPr id="226" name="カギ線コネクタ 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000E2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000E2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2023,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2110,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2163,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2310,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2392,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2463,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2534,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2610,7 @@
         <xdr:cNvPr id="71" name="カギ線コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2646,7 +2674,7 @@
         <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2727,7 @@
         <xdr:cNvPr id="80" name="テキスト ボックス 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2798,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2881,7 @@
         <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2934,7 @@
         <xdr:cNvPr id="88" name="テキスト ボックス 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000058000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000058000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +3011,7 @@
         <xdr:cNvPr id="93" name="テキスト ボックス 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3087,7 @@
         <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000060000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000060000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3140,7 @@
         <xdr:cNvPr id="97" name="テキスト ボックス 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000061000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3216,7 @@
         <xdr:cNvPr id="98" name="カギ線コネクタ 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000062000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3271,7 @@
         <xdr:cNvPr id="106" name="テキスト ボックス 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3347,7 @@
         <xdr:cNvPr id="109" name="直線矢印コネクタ 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3400,7 @@
         <xdr:cNvPr id="110" name="テキスト ボックス 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00006E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3476,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3532,7 @@
         <xdr:cNvPr id="39" name="テキスト ボックス 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3606,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3653,7 +3681,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3809,7 @@
         <xdr:cNvPr id="64" name="円/楕円 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3843,7 +3871,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3901,7 +3929,7 @@
         <xdr:cNvPr id="66" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +4021,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +4074,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4122,7 +4150,7 @@
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4175,7 +4203,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4245,7 +4273,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4321,7 +4349,7 @@
         <xdr:cNvPr id="75" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4413,7 +4441,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4471,7 +4499,7 @@
         <xdr:cNvPr id="81" name="Rounded Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4591,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,7 +4649,7 @@
         <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,7 +4702,7 @@
         <xdr:cNvPr id="86" name="テキスト ボックス 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4745,7 +4773,7 @@
         <xdr:cNvPr id="87" name="テキスト ボックス 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4815,7 +4843,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4891,7 +4919,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5005,7 +5033,7 @@
         <xdr:cNvPr id="99" name="円/楕円 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5066,7 +5094,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5127,7 +5155,7 @@
         <xdr:cNvPr id="103" name="円/楕円 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,10 +5218,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5201,8 +5229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392135" y="966855"/>
-          <a:ext cx="1529921" cy="1126901"/>
+          <a:off x="384891" y="3106894"/>
+          <a:ext cx="1486454" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5290,10 +5318,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5301,8 +5329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5311557" y="5970073"/>
-          <a:ext cx="1548366" cy="1123366"/>
+          <a:off x="5105182" y="6407826"/>
+          <a:ext cx="1486453" cy="1133288"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5382,10 +5410,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rounded Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,8 +5421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1262114" y="9370863"/>
-          <a:ext cx="1546332" cy="1126748"/>
+          <a:off x="1220839" y="10034835"/>
+          <a:ext cx="1484419" cy="1138654"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5474,10 +5502,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5485,8 +5513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648875" y="9378958"/>
-          <a:ext cx="1548367" cy="1118653"/>
+          <a:off x="3504412" y="10042930"/>
+          <a:ext cx="1486455" cy="1130559"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5577,10 +5605,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5588,8 +5616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6037671" y="9370850"/>
-          <a:ext cx="1548367" cy="1126761"/>
+          <a:off x="5800340" y="10034822"/>
+          <a:ext cx="1486454" cy="1138667"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5680,10 +5708,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rounded Rectangle 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5691,8 +5719,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8442167" y="9364055"/>
-          <a:ext cx="1545527" cy="1133556"/>
+          <a:off x="8111967" y="10028027"/>
+          <a:ext cx="1483614" cy="1145462"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5772,10 +5800,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,8 +5811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2827380" y="6168472"/>
-          <a:ext cx="1548366" cy="1131092"/>
+          <a:off x="2724192" y="6417709"/>
+          <a:ext cx="1486454" cy="1142999"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5864,10 +5892,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rounded Rectangle 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5875,8 +5903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10871999" y="9355311"/>
-          <a:ext cx="1548368" cy="1142300"/>
+          <a:off x="10438611" y="10017298"/>
+          <a:ext cx="1486456" cy="1156191"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5956,10 +5984,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5967,8 +5995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3698937" y="12742466"/>
-          <a:ext cx="1574250" cy="1155223"/>
+          <a:off x="3494080" y="12771179"/>
+          <a:ext cx="1486455" cy="1138658"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6048,10 +6076,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6059,8 +6087,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2793262" y="973884"/>
-          <a:ext cx="1526527" cy="1119872"/>
+          <a:off x="2720818" y="3113923"/>
+          <a:ext cx="1483061" cy="1135971"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6140,10 +6168,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6151,8 +6179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5218625" y="976609"/>
-          <a:ext cx="1529368" cy="1117147"/>
+          <a:off x="5073738" y="3116648"/>
+          <a:ext cx="1485901" cy="1133246"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6232,10 +6260,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6243,8 +6271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581235" y="973884"/>
-          <a:ext cx="1527884" cy="1119872"/>
+          <a:off x="7371148" y="3113923"/>
+          <a:ext cx="1484418" cy="1135971"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6324,10 +6352,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6335,8 +6363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892661" y="2907629"/>
-          <a:ext cx="1549172" cy="1126762"/>
+          <a:off x="9500548" y="3121148"/>
+          <a:ext cx="1487260" cy="1138668"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6416,10 +6444,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6427,8 +6455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5285391" y="2448648"/>
-          <a:ext cx="1529680" cy="1119872"/>
+          <a:off x="5140504" y="4610152"/>
+          <a:ext cx="1486213" cy="1135971"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6508,10 +6536,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6519,8 +6547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7608868" y="2462063"/>
-          <a:ext cx="1527083" cy="1119872"/>
+          <a:off x="7398781" y="4623567"/>
+          <a:ext cx="1483617" cy="1135971"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6600,10 +6628,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6611,8 +6639,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4415237" y="6508749"/>
-          <a:ext cx="922732" cy="2"/>
+          <a:off x="4239818" y="6759971"/>
+          <a:ext cx="891776" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6655,10 +6683,10 @@
     <xdr:ext cx="1013483" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="テキスト ボックス 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6666,7 +6694,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3153127" y="5710836"/>
+          <a:off x="2977536" y="5838940"/>
           <a:ext cx="1013483" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6737,10 +6765,10 @@
     <xdr:ext cx="802336" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="テキスト ボックス 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6748,7 +6776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4443560" y="6230767"/>
+          <a:off x="4268141" y="6480004"/>
           <a:ext cx="802336" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6813,22 +6841,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-          <a:endCxn id="19" idx="0"/>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3657643" y="6069909"/>
-          <a:ext cx="2226" cy="227978"/>
+          <a:off x="3467419" y="6195252"/>
+          <a:ext cx="2226" cy="222457"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6874,10 +6902,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,8 +6913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4365625" y="6994922"/>
-          <a:ext cx="932656" cy="1"/>
+          <a:off x="4200525" y="7252097"/>
+          <a:ext cx="891381" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6927,10 +6955,10 @@
     <xdr:ext cx="875624" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6938,7 +6966,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4443792" y="6734929"/>
+          <a:off x="4268373" y="6990120"/>
           <a:ext cx="875624" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6997,10 +7025,10 @@
     <xdr:ext cx="1028487" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="テキスト ボックス 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7008,7 +7036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1544963" y="9303274"/>
+          <a:off x="1471800" y="9381683"/>
           <a:ext cx="1028487" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7080,10 +7108,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="直線矢印コネクタ 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7091,8 +7119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2809478" y="9605127"/>
-          <a:ext cx="859845" cy="0"/>
+          <a:off x="2706290" y="10271083"/>
+          <a:ext cx="818570" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7138,10 +7166,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7149,8 +7177,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2809478" y="10115223"/>
-          <a:ext cx="859845" cy="0"/>
+          <a:off x="2706290" y="10787132"/>
+          <a:ext cx="818570" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7191,10 +7219,10 @@
     <xdr:ext cx="877676" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="テキスト ボックス 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,7 +7230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2890336" y="10496067"/>
+          <a:off x="2729377" y="10557910"/>
           <a:ext cx="877676" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7262,10 +7290,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="テキスト ボックス 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7273,7 +7301,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6937218" y="4573784"/>
+          <a:off x="6668930" y="4805162"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7338,10 +7366,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="Rounded Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+        <xdr:cNvPr id="28" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,8 +7377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1312530" y="12742466"/>
-          <a:ext cx="1574377" cy="1159352"/>
+          <a:off x="1239367" y="12771179"/>
+          <a:ext cx="1486581" cy="1142787"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7425,10 +7453,10 @@
     <xdr:ext cx="1013483" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="テキスト ボックス 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7436,7 +7464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1593363" y="12076958"/>
+          <a:off x="1505567" y="12116715"/>
           <a:ext cx="1013483" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7508,10 +7536,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7561,10 +7589,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="テキスト ボックス 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7572,7 +7600,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5358500" y="10043951"/>
+          <a:off x="5065848" y="10111316"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7637,10 +7665,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,10 +7718,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="テキスト ボックス 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7701,7 +7729,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5398809" y="10581390"/>
+          <a:off x="5106157" y="10640473"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7761,10 +7789,10 @@
     <xdr:ext cx="875945" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="テキスト ボックス 114">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7772,7 +7800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2840726" y="9781509"/>
+          <a:off x="2694400" y="9851635"/>
           <a:ext cx="875945" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7840,10 +7868,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000074000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7893,10 +7921,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="テキスト ボックス 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000075000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7904,7 +7932,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2919387" y="13303373"/>
+          <a:off x="2758428" y="13323803"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7964,10 +7992,10 @@
     <xdr:ext cx="913069" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="テキスト ボックス 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7975,7 +8003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1931016" y="946569"/>
+          <a:off x="1880305" y="3086608"/>
           <a:ext cx="913069" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8051,10 +8079,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000079000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8062,8 +8090,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7583313" y="9708695"/>
-          <a:ext cx="859846" cy="0"/>
+          <a:off x="7284069" y="10374651"/>
+          <a:ext cx="828890" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8109,10 +8137,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8162,10 +8190,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="テキスト ボックス 127">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8173,7 +8201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7764508" y="10076389"/>
+          <a:off x="7340162" y="10143754"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8233,10 +8261,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8244,7 +8272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7763403" y="10572415"/>
+          <a:off x="7339057" y="10631498"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8309,22 +8337,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9987694" y="9926461"/>
-          <a:ext cx="884305" cy="4372"/>
+          <a:off x="9595581" y="10596386"/>
+          <a:ext cx="843030" cy="4372"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8365,10 +8393,10 @@
     <xdr:ext cx="789383" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="テキスト ボックス 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8376,7 +8404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10156123" y="10126803"/>
+          <a:off x="9600084" y="10194168"/>
           <a:ext cx="789383" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8444,10 +8472,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="直線矢印コネクタ 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093000000}"/>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8455,8 +8483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4331034" y="1176442"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="4205599" y="3319165"/>
+          <a:ext cx="831170" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8497,10 +8525,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="テキスト ボックス 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095000000}"/>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000095000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8508,7 +8536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2008399" y="3511101"/>
+          <a:off x="1936168" y="3730573"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8572,10 +8600,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000096000000}"/>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000096000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8583,8 +8611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1934491" y="1315427"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="1883780" y="3460833"/>
+          <a:ext cx="828889" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8630,10 +8658,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="151" name="直線矢印コネクタ 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8641,8 +8669,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1899073" y="1789799"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="1848362" y="3943254"/>
+          <a:ext cx="828889" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8683,10 +8711,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="テキスト ボックス 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000099000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8694,7 +8722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4437570" y="2884750"/>
+          <a:off x="4262151" y="3098269"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8754,10 +8782,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="テキスト ボックス 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009A000000}"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8765,7 +8793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4452334" y="3304078"/>
+          <a:off x="4276915" y="3521565"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8829,10 +8857,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009B000000}"/>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8840,8 +8868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4332107" y="1593396"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="4206672" y="3744168"/>
+          <a:ext cx="831170" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8887,10 +8915,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009C000000}"/>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8898,8 +8926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6764068" y="1194687"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="6575714" y="3337410"/>
+          <a:ext cx="828889" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8940,10 +8968,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8951,7 +8979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6871582" y="2922839"/>
+          <a:off x="6603294" y="3136358"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9011,10 +9039,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="テキスト ボックス 157">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9022,7 +9050,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883272" y="3312401"/>
+          <a:off x="6614984" y="3529888"/>
           <a:ext cx="702885" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9086,10 +9114,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00009F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9097,8 +9125,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6751726" y="1611641"/>
-          <a:ext cx="850622" cy="0"/>
+          <a:off x="6563372" y="3762413"/>
+          <a:ext cx="828889" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9144,22 +9172,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直線矢印コネクタ 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="3"/>
-          <a:endCxn id="56" idx="1"/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9216722" y="3462437"/>
-          <a:ext cx="675939" cy="8573"/>
+          <a:off x="8855566" y="3681909"/>
+          <a:ext cx="644982" cy="8573"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9200,10 +9228,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="テキスト ボックス 160">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9211,7 +9239,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9195905" y="3154586"/>
+          <a:off x="8834749" y="3372073"/>
           <a:ext cx="716928" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9276,10 +9304,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A5000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9336,10 +9364,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="170" name="直線矢印コネクタ 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9394,15 +9422,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="172" name="直線矢印コネクタ 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="176" idx="1"/>
+          <a:endCxn id="61" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9449,10 +9477,10 @@
     <xdr:ext cx="710900" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="テキスト ボックス 173">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000AE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9460,7 +9488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9411816" y="4520554"/>
+          <a:off x="8899675" y="4667984"/>
           <a:ext cx="710900" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9523,10 +9551,10 @@
     <xdr:ext cx="1050416" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="テキスト ボックス 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B0000000}"/>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9603,22 +9631,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="179" name="カギ線コネクタ 178">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="0"/>
-          <a:endCxn id="51" idx="0"/>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7128258" y="-631360"/>
-          <a:ext cx="7225" cy="7070754"/>
+          <a:off x="6849652" y="-273379"/>
+          <a:ext cx="7225" cy="6781829"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9661,10 +9689,10 @@
     <xdr:ext cx="1261728" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="テキスト ボックス 181">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000B6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9672,7 +9700,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9366138" y="2420938"/>
+          <a:off x="8994663" y="2630488"/>
           <a:ext cx="1261728" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9737,22 +9765,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="186" name="カギ線コネクタ 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="2"/>
-          <a:endCxn id="15" idx="1"/>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="1367010" y="9829341"/>
-          <a:ext cx="563375" cy="773167"/>
+          <a:off x="1307281" y="10517720"/>
+          <a:ext cx="569328" cy="742211"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -9796,10 +9824,10 @@
     <xdr:ext cx="1482393" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="テキスト ボックス 188">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9807,7 +9835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800307" y="11382663"/>
+          <a:off x="756409" y="11430702"/>
           <a:ext cx="1482393" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9885,10 +9913,10 @@
     <xdr:ext cx="716928" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9961,10 +9989,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="直線矢印コネクタ 164">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10016,10 +10044,10 @@
     <xdr:ext cx="702885" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="テキスト ボックス 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000067000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10091,10 +10119,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="円/楕円 106">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+        <xdr:cNvPr id="69" name="円/楕円 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10102,8 +10130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374144" y="4481579"/>
-          <a:ext cx="392324" cy="334312"/>
+          <a:off x="1322550" y="4712957"/>
+          <a:ext cx="382005" cy="336296"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10148,10 +10176,10 @@
     <xdr:ext cx="595035" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="テキスト ボックス 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10159,7 +10187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1566216" y="4018189"/>
+          <a:off x="1504303" y="4243614"/>
           <a:ext cx="595035" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10226,10 +10254,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="直線矢印コネクタ 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10237,8 +10265,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1551226" y="4013760"/>
-          <a:ext cx="6508" cy="490771"/>
+          <a:off x="1489313" y="4239185"/>
+          <a:ext cx="6508" cy="496724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10284,22 +10312,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="カギ線コネクタ 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="19" idx="1"/>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="2931699" y="6629700"/>
-          <a:ext cx="565546" cy="774183"/>
+          <a:off x="2810056" y="6903346"/>
+          <a:ext cx="571499" cy="743227"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -10343,10 +10371,10 @@
     <xdr:ext cx="904928" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="テキスト ボックス 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+        <xdr:cNvPr id="73" name="テキスト ボックス 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10438,10 +10466,10 @@
     <xdr:ext cx="2967848" cy="542456"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="テキスト ボックス 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10449,7 +10477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6634802" y="6367734"/>
+          <a:off x="6613267" y="6374360"/>
           <a:ext cx="2967848" cy="542456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10555,10 +10583,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="円/楕円 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+        <xdr:cNvPr id="75" name="円/楕円 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10566,8 +10594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4939669" y="5734843"/>
-          <a:ext cx="392324" cy="364541"/>
+          <a:off x="4743613" y="5978127"/>
+          <a:ext cx="382005" cy="368510"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10617,22 +10645,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="120" idx="6"/>
-          <a:endCxn id="14" idx="0"/>
+          <a:stCxn id="75" idx="6"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5142183" y="6155757"/>
-          <a:ext cx="725276" cy="245443"/>
+          <a:off x="5125618" y="6162383"/>
+          <a:ext cx="722791" cy="245443"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10678,10 +10706,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="円/楕円 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+        <xdr:cNvPr id="77" name="円/楕円 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10689,8 +10717,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086461" y="7606779"/>
-          <a:ext cx="396637" cy="343803"/>
+          <a:off x="4808441" y="7710036"/>
+          <a:ext cx="382005" cy="338281"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10740,22 +10768,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="125" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="2"/>
-          <a:endCxn id="123" idx="6"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="77" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5662237" y="7255959"/>
-          <a:ext cx="343584" cy="701861"/>
+          <a:off x="5350396" y="7381165"/>
+          <a:ext cx="338063" cy="657963"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10796,10 +10824,10 @@
     <xdr:ext cx="3162714" cy="767518"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="テキスト ボックス 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10807,7 +10835,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1651984" y="8078471"/>
+          <a:off x="1647014" y="7894597"/>
           <a:ext cx="3162714" cy="767518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10893,10 +10921,10 @@
     <xdr:ext cx="1319609" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="テキスト ボックス 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10904,7 +10932,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733739" y="6115598"/>
+          <a:off x="1645943" y="6238181"/>
           <a:ext cx="1319609" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10976,10 +11004,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10987,8 +11015,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374348" y="6474239"/>
-          <a:ext cx="491349" cy="3019"/>
+          <a:off x="2242655" y="6591300"/>
+          <a:ext cx="476716" cy="3019"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11029,10 +11057,10 @@
     <xdr:ext cx="1435521" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="テキスト ボックス 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11040,7 +11068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5920942" y="7588517"/>
+          <a:off x="5901892" y="7595143"/>
           <a:ext cx="1435521" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11105,10 +11133,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="円/楕円 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+        <xdr:cNvPr id="83" name="円/楕円 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11116,8 +11144,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="310709" y="9926462"/>
-          <a:ext cx="396637" cy="343804"/>
+          <a:off x="296076" y="9996588"/>
+          <a:ext cx="382005" cy="338282"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11167,22 +11195,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000094000000}"/>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000094000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="90" idx="2"/>
-          <a:endCxn id="15" idx="0"/>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2059207" y="9662347"/>
-          <a:ext cx="6270" cy="305123"/>
+          <a:off x="1956779" y="9735234"/>
+          <a:ext cx="6270" cy="299601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11228,10 +11256,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="152" name="直線矢印コネクタ 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000098000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11281,10 +11309,10 @@
     <xdr:ext cx="3647161" cy="317395"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="テキスト ボックス 161">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11292,7 +11320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3558708" y="11096360"/>
+          <a:off x="3368484" y="11149921"/>
           <a:ext cx="3647161" cy="317395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11371,10 +11399,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="円/楕円 162">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+        <xdr:cNvPr id="87" name="円/楕円 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A3000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11433,15 +11461,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="直線矢印コネクタ 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A4000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="163" idx="0"/>
+          <a:stCxn id="87" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11493,10 +11521,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="円/楕円 165">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+        <xdr:cNvPr id="89" name="円/楕円 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11504,8 +11532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10581144" y="11279288"/>
-          <a:ext cx="396637" cy="343803"/>
+          <a:off x="9995840" y="11330088"/>
+          <a:ext cx="382004" cy="338281"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11555,21 +11583,21 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="166" idx="6"/>
+          <a:endCxn id="89" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="11156920" y="10928468"/>
-          <a:ext cx="343584" cy="701861"/>
+          <a:off x="10537795" y="11001217"/>
+          <a:ext cx="338062" cy="657963"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11610,10 +11638,10 @@
     <xdr:ext cx="1020792" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="テキスト ボックス 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11621,7 +11649,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11291386" y="11495699"/>
+          <a:off x="10662184" y="11543738"/>
           <a:ext cx="1020792" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11686,22 +11714,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="99" idx="2"/>
-          <a:endCxn id="98" idx="0"/>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2099719" y="12436031"/>
-          <a:ext cx="386" cy="306435"/>
+          <a:off x="1982658" y="12470266"/>
+          <a:ext cx="386" cy="300913"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11747,10 +11775,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11800,10 +11828,10 @@
     <xdr:ext cx="595035" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="テキスト ボックス 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+        <xdr:cNvPr id="94" name="テキスト ボックス 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11811,7 +11839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2850892" y="12752518"/>
+          <a:off x="2704566" y="12781231"/>
           <a:ext cx="595035" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11879,10 +11907,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000061000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11890,8 +11918,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2611933" y="11126160"/>
-          <a:ext cx="6270" cy="305123"/>
+          <a:off x="2480240" y="11176960"/>
+          <a:ext cx="0" cy="302362"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11932,10 +11960,10 @@
     <xdr:ext cx="802336" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="テキスト ボックス 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11943,7 +11971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2648018" y="11121083"/>
+          <a:off x="2501692" y="11171883"/>
           <a:ext cx="802336" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12008,10 +12036,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="円/楕円 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+        <xdr:cNvPr id="97" name="円/楕円 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12019,8 +12047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2413473" y="11422234"/>
-          <a:ext cx="396637" cy="374031"/>
+          <a:off x="2281780" y="11470273"/>
+          <a:ext cx="382004" cy="368509"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12065,10 +12093,10 @@
     <xdr:ext cx="1222725" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="テキスト ボックス 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+        <xdr:cNvPr id="98" name="テキスト ボックス 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12076,7 +12104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6099100" y="12134937"/>
+          <a:off x="6079222" y="12141563"/>
           <a:ext cx="1222725" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12148,21 +12176,21 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A9000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="110" idx="2"/>
-          <a:endCxn id="134" idx="0"/>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="100" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6710370" y="12494010"/>
+          <a:off x="6688007" y="12500636"/>
           <a:ext cx="93" cy="287106"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -12209,10 +12237,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="Rounded Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+        <xdr:cNvPr id="100" name="Rounded Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000062000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12220,8 +12248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5964594" y="12590616"/>
-          <a:ext cx="1491551" cy="1142787"/>
+          <a:off x="5944716" y="12787742"/>
+          <a:ext cx="1486581" cy="1142787"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -12301,10 +12329,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+        <xdr:cNvPr id="101" name="直線矢印コネクタ 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12312,8 +12340,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429500" y="12875798"/>
-          <a:ext cx="1373645" cy="0"/>
+          <a:off x="7405480" y="12882424"/>
+          <a:ext cx="1368676" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12354,10 +12382,10 @@
     <xdr:ext cx="802336" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="テキスト ボックス 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+        <xdr:cNvPr id="102" name="テキスト ボックス 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12365,7 +12393,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7669809" y="12643923"/>
+          <a:off x="7644961" y="12650549"/>
           <a:ext cx="802336" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12430,10 +12458,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="円/楕円 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+        <xdr:cNvPr id="103" name="円/楕円 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12441,8 +12469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8803145" y="12706657"/>
-          <a:ext cx="382833" cy="338281"/>
+          <a:off x="8774156" y="12713283"/>
+          <a:ext cx="382005" cy="338281"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12492,21 +12520,21 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="171" idx="2"/>
+          <a:endCxn id="105" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7462630" y="13786884"/>
-          <a:ext cx="1332232" cy="1"/>
+          <a:off x="7437782" y="13793510"/>
+          <a:ext cx="1328091" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12552,10 +12580,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="円/楕円 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+        <xdr:cNvPr id="105" name="円/楕円 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12563,8 +12591,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8794862" y="13617743"/>
-          <a:ext cx="382833" cy="338281"/>
+          <a:off x="8765873" y="13624369"/>
+          <a:ext cx="382005" cy="338281"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12609,10 +12637,10 @@
     <xdr:ext cx="1068882" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="テキスト ボックス 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A8000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12620,7 +12648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7558689" y="13713782"/>
+          <a:off x="7558689" y="13523282"/>
           <a:ext cx="1068882" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12685,10 +12713,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="円/楕円 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+        <xdr:cNvPr id="107" name="円/楕円 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000A6000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12696,8 +12724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6807037" y="5989462"/>
-          <a:ext cx="382833" cy="338281"/>
+          <a:off x="6784674" y="5996088"/>
+          <a:ext cx="382005" cy="338281"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12747,22 +12775,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="181" name="カギ線コネクタ 180">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+        <xdr:cNvPr id="108" name="カギ線コネクタ 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="134" idx="2"/>
-          <a:endCxn id="134" idx="1"/>
+          <a:stCxn id="100" idx="2"/>
+          <a:endCxn id="100" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6051785" y="13265319"/>
-          <a:ext cx="571393" cy="745776"/>
+          <a:off x="6030665" y="13273187"/>
+          <a:ext cx="571393" cy="743291"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -12806,10 +12834,10 @@
     <xdr:ext cx="1192249" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="テキスト ボックス 182">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+        <xdr:cNvPr id="109" name="テキスト ボックス 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000BD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12817,7 +12845,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5910677" y="14215315"/>
+          <a:off x="5891627" y="14221941"/>
           <a:ext cx="1192249" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12881,10 +12909,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="円/楕円 183">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+        <xdr:cNvPr id="110" name="円/楕円 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12892,8 +12920,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8794860" y="13178767"/>
-          <a:ext cx="382834" cy="338282"/>
+          <a:off x="8765871" y="13185393"/>
+          <a:ext cx="382006" cy="338282"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12943,22 +12971,22 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="185" name="直線矢印コネクタ 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="134" idx="3"/>
-          <a:endCxn id="184" idx="2"/>
+          <a:stCxn id="100" idx="3"/>
+          <a:endCxn id="110" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7456145" y="13347908"/>
-          <a:ext cx="1338715" cy="4602"/>
+          <a:off x="7431297" y="13354534"/>
+          <a:ext cx="1334574" cy="4602"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12999,10 +13027,10 @@
     <xdr:ext cx="1435521" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="テキスト ボックス 186">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+        <xdr:cNvPr id="112" name="テキスト ボックス 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000090000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13010,7 +13038,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7428377" y="13088170"/>
+          <a:off x="7404357" y="13094796"/>
           <a:ext cx="1435521" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13075,21 +13103,21 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="190" name="直線矢印コネクタ 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="175" idx="2"/>
+          <a:stCxn id="107" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6049677" y="6158602"/>
-          <a:ext cx="757360" cy="234315"/>
+          <a:off x="6029799" y="6165228"/>
+          <a:ext cx="754875" cy="234315"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -13137,13 +13165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="フリーフォーム 5"/>
+        <xdr:cNvPr id="114" name="フリーフォーム 113"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6617804" y="6957391"/>
-          <a:ext cx="853109" cy="389283"/>
+          <a:off x="6596269" y="6964017"/>
+          <a:ext cx="849796" cy="389283"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -13233,10 +13261,10 @@
     <xdr:ext cx="1346844" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="テキスト ボックス 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+        <xdr:cNvPr id="115" name="テキスト ボックス 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13244,7 +13272,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7471257" y="7255163"/>
+          <a:off x="7471257" y="7064663"/>
           <a:ext cx="1346844" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13303,10 +13331,10 @@
     <xdr:ext cx="3246350" cy="992579"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="テキスト ボックス 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+        <xdr:cNvPr id="116" name="テキスト ボックス 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13314,7 +13342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6634802" y="7883451"/>
+          <a:off x="6613267" y="7890077"/>
           <a:ext cx="3246350" cy="992579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13421,103 +13449,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>62406</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6812</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="800219" cy="359073"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1862631" y="1226012"/>
-          <a:ext cx="800219" cy="359073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>会員一覧表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-            <a:t>リンク</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23132</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238679</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A4000000}"/>
+        <xdr:cNvPr id="117" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13525,8 +13475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="1038225"/>
-          <a:ext cx="1546325" cy="1156607"/>
+          <a:off x="1228725" y="16506825"/>
+          <a:ext cx="1486454" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13563,25 +13513,25 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:latin typeface="Meiryo" charset="-128"/>
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>1-3-1-3</a:t>
+            <a:t>1-1-1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
               <a:latin typeface="Meiryo" charset="-128"/>
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>管理者用メニュー画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:t>ログイン画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo" charset="-128"/>
             <a:ea typeface="Meiryo" charset="-128"/>
             <a:cs typeface="Meiryo" charset="-128"/>
@@ -13594,22 +13544,80 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7712</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16425</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>112541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>12814</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11322</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170162</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>112541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2740575" y="16800341"/>
+          <a:ext cx="896687" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189915</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>18582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>188435</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>14236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A8000000}"/>
+        <xdr:cNvPr id="119" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13617,8 +13625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2579462" y="1023944"/>
-          <a:ext cx="1548152" cy="1159078"/>
+          <a:off x="3657015" y="16515882"/>
+          <a:ext cx="1484420" cy="1138654"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13660,7 +13668,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>6-1-1-3</a:t>
+            <a:t>8-1-1-1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13671,7 +13679,7 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
-            <a:t>会員一覧画面</a:t>
+            <a:t>お問い合わせ画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
             <a:latin typeface="Meiryo" charset="-128"/>
@@ -13685,23 +13693,351 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197815</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67350</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104258</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5150815" y="16792058"/>
+          <a:ext cx="860135" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11348</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>60767</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716928" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="テキスト ボックス 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5211998" y="16558067"/>
+          <a:ext cx="716928" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241284</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>83965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147371</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>83965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2717784" y="17343265"/>
+          <a:ext cx="896687" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>12901</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16607</xdr:rowOff>
+      <xdr:colOff>141459</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>37858</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="702885" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2865609" y="17106658"/>
+          <a:ext cx="702885" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1128766" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="テキスト ボックス 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="16392525"/>
+          <a:ext cx="1128766" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>お問い合わせ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>73960</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>18582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>18149</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7086</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>72479</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>14236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A9000000}"/>
+        <xdr:cNvPr id="125" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13709,8 +14045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2584651" y="3140807"/>
-          <a:ext cx="1548298" cy="1133479"/>
+          <a:off x="6017560" y="16515882"/>
+          <a:ext cx="1484419" cy="1138654"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13752,6 +14088,1103 @@
               <a:ea typeface="Meiryo" charset="-128"/>
               <a:cs typeface="Meiryo" charset="-128"/>
             </a:rPr>
+            <a:t>8-1-1-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>お問い合わせ確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo" charset="-128"/>
+            <a:ea typeface="Meiryo" charset="-128"/>
+            <a:cs typeface="Meiryo" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>81859</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>4867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>199872</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>4867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7511359" y="17073667"/>
+          <a:ext cx="860963" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>206481</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>18582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205001</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>14236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rounded Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8378931" y="16515882"/>
+          <a:ext cx="1484420" cy="1138654"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>8-1-1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>お問い合わせ完了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo" charset="-128"/>
+            <a:ea typeface="Meiryo" charset="-128"/>
+            <a:cs typeface="Meiryo" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197815</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67350</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5150815" y="17347407"/>
+          <a:ext cx="860135" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68496</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>44616</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="702885" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5269146" y="17113416"/>
+          <a:ext cx="702885" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>10104</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>151876</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="685701" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9916104" y="16839676"/>
+          <a:ext cx="685701" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>160849</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="716928" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="テキスト ボックス 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7590349" y="16792051"/>
+          <a:ext cx="716928" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238402</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>205001</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="カギ線コネクタ 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="3"/>
+          <a:endCxn id="117" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1971952" y="17085209"/>
+          <a:ext cx="7891399" cy="564616"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5311"/>
+            <a:gd name="adj2" fmla="val 196993"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2203873" cy="625812"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="15697200"/>
+          <a:ext cx="2203873" cy="625812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ログイン成功時会員権限に応じた画面を表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一般会員：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>2-1-1-2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>トップ画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>運用管理者：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1-3-1-3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 管理者メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>システム管理者：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1-3-1-4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t> 管理者メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238402</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>84307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="カギ線コネクタ 133"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="0"/>
+          <a:endCxn id="133" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2561654" y="15420405"/>
+          <a:ext cx="496719" cy="1676123"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="869982" cy="225703"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="15735300"/>
+          <a:ext cx="869982" cy="225703"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>62406</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="800219" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1862631" y="1226012"/>
+          <a:ext cx="800219" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>会員一覧表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>リンク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Rounded Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="1038225"/>
+          <a:ext cx="1546325" cy="1156607"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>1-3-1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>管理者用メニュー画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo" charset="-128"/>
+            <a:ea typeface="Meiryo" charset="-128"/>
+            <a:cs typeface="Meiryo" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7712</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2579462" y="1023944"/>
+          <a:ext cx="1548152" cy="1159078"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>6-1-1-3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
+            <a:t>会員一覧画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="Meiryo" charset="-128"/>
+            <a:ea typeface="Meiryo" charset="-128"/>
+            <a:cs typeface="Meiryo" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12901</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>18149</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rounded Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2584651" y="3140807"/>
+          <a:ext cx="1548298" cy="1133479"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="Meiryo" charset="-128"/>
+              <a:ea typeface="Meiryo" charset="-128"/>
+              <a:cs typeface="Meiryo" charset="-128"/>
+            </a:rPr>
             <a:t>6-2-1-3</a:t>
           </a:r>
         </a:p>
@@ -13788,7 +15221,7 @@
         <xdr:cNvPr id="170" name="テキスト ボックス 169">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000AA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13862,7 +15295,7 @@
         <xdr:cNvPr id="176" name="テキスト ボックス 175">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13940,7 +15373,7 @@
         <xdr:cNvPr id="183" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000B7000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14003,7 +15436,7 @@
         <xdr:cNvPr id="186" name="グループ化 185">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14022,7 +15455,7 @@
           <xdr:cNvPr id="187" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14099,7 +15532,7 @@
           <xdr:cNvPr id="193" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14176,7 +15609,7 @@
           <xdr:cNvPr id="195" name="テキスト ボックス 194">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14236,7 +15669,7 @@
           <xdr:cNvPr id="197" name="直線矢印コネクタ 196">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14298,7 +15731,7 @@
         <xdr:cNvPr id="204" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14359,7 +15792,7 @@
         <xdr:cNvPr id="205" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14420,7 +15853,7 @@
         <xdr:cNvPr id="206" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14475,7 +15908,7 @@
         <xdr:cNvPr id="207" name="テキスト ボックス 206">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14551,7 +15984,7 @@
         <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14609,7 +16042,7 @@
         <xdr:cNvPr id="209" name="グループ化 208">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14628,7 +16061,7 @@
           <xdr:cNvPr id="210" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14705,7 +16138,7 @@
           <xdr:cNvPr id="211" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14782,7 +16215,7 @@
           <xdr:cNvPr id="212" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14859,7 +16292,7 @@
           <xdr:cNvPr id="213" name="テキスト ボックス 212">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14923,7 +16356,7 @@
           <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -14969,7 +16402,7 @@
           <xdr:cNvPr id="217" name="テキスト ボックス 216">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15033,7 +16466,7 @@
           <xdr:cNvPr id="218" name="直線矢印コネクタ 217">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15076,7 +16509,7 @@
           <xdr:cNvPr id="219" name="テキスト ボックス 218">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15139,7 +16572,7 @@
           <xdr:cNvPr id="220" name="直線矢印コネクタ 219">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15193,7 +16626,7 @@
         <xdr:cNvPr id="241" name="テキスト ボックス 240">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15269,7 +16702,7 @@
         <xdr:cNvPr id="242" name="グループ化 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15288,7 +16721,7 @@
           <xdr:cNvPr id="243" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15365,7 +16798,7 @@
           <xdr:cNvPr id="254" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15442,7 +16875,7 @@
           <xdr:cNvPr id="255" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15519,7 +16952,7 @@
           <xdr:cNvPr id="260" name="テキスト ボックス 259">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15583,7 +17016,7 @@
           <xdr:cNvPr id="261" name="テキスト ボックス 260">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15646,7 +17079,7 @@
           <xdr:cNvPr id="262" name="直線矢印コネクタ 261">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15689,7 +17122,7 @@
           <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000008010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15732,7 +17165,7 @@
           <xdr:cNvPr id="265" name="テキスト ボックス 264">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15796,7 +17229,7 @@
           <xdr:cNvPr id="266" name="直線矢印コネクタ 265">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15839,7 +17272,7 @@
           <xdr:cNvPr id="247" name="テキスト ボックス 246">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -15932,7 +17365,7 @@
         <xdr:cNvPr id="267" name="テキスト ボックス 266">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16005,7 +17438,7 @@
         <xdr:cNvPr id="268" name="テキスト ボックス 267">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16084,7 +17517,7 @@
         <xdr:cNvPr id="269" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16142,7 +17575,7 @@
         <xdr:cNvPr id="270" name="円/楕円 269">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16204,7 +17637,7 @@
         <xdr:cNvPr id="271" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16265,7 +17698,7 @@
         <xdr:cNvPr id="272" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16325,7 +17758,7 @@
         <xdr:cNvPr id="273" name="円/楕円 272">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000011010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16382,7 +17815,7 @@
         <xdr:cNvPr id="274" name="テキスト ボックス 273">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000012010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16457,7 +17890,7 @@
         <xdr:cNvPr id="275" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16518,7 +17951,7 @@
         <xdr:cNvPr id="276" name="円/楕円 275">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000014010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16580,7 +18013,7 @@
         <xdr:cNvPr id="277" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000015010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16638,7 +18071,7 @@
         <xdr:cNvPr id="278" name="円/楕円 277">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16700,7 +18133,7 @@
         <xdr:cNvPr id="280" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16755,7 +18188,7 @@
         <xdr:cNvPr id="281" name="テキスト ボックス 280">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16828,7 +18261,7 @@
         <xdr:cNvPr id="282" name="テキスト ボックス 281">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16901,7 +18334,7 @@
         <xdr:cNvPr id="284" name="テキスト ボックス 283">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16979,7 +18412,7 @@
         <xdr:cNvPr id="285" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17037,7 +18470,7 @@
         <xdr:cNvPr id="286" name="テキスト ボックス 285">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17112,7 +18545,7 @@
         <xdr:cNvPr id="288" name="円/楕円 287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17174,7 +18607,7 @@
         <xdr:cNvPr id="289" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17234,7 +18667,7 @@
         <xdr:cNvPr id="290" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17291,7 +18724,7 @@
         <xdr:cNvPr id="291" name="テキスト ボックス 290">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000023010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17367,7 +18800,7 @@
         <xdr:cNvPr id="292" name="円/楕円 291">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000024010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17429,7 +18862,7 @@
         <xdr:cNvPr id="293" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000025010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17489,7 +18922,7 @@
         <xdr:cNvPr id="294" name="円/楕円 293">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000026010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17546,7 +18979,7 @@
         <xdr:cNvPr id="295" name="テキスト ボックス 294">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000027010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17622,7 +19055,7 @@
         <xdr:cNvPr id="296" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000028010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17683,7 +19116,7 @@
         <xdr:cNvPr id="299" name="円/楕円 298">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17740,7 +19173,7 @@
         <xdr:cNvPr id="300" name="テキスト ボックス 299">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17825,7 +19258,7 @@
         <xdr:cNvPr id="301" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17885,7 +19318,7 @@
         <xdr:cNvPr id="302" name="円/楕円 301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17947,7 +19380,7 @@
         <xdr:cNvPr id="303" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18003,7 +19436,7 @@
         <xdr:cNvPr id="304" name="テキスト ボックス 303">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000030010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18088,7 +19521,7 @@
         <xdr:cNvPr id="305" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000031010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18180,7 +19613,7 @@
         <xdr:cNvPr id="306" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000032010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18267,7 +19700,7 @@
         <xdr:cNvPr id="307" name="テキスト ボックス 306">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000033010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18341,7 +19774,7 @@
         <xdr:cNvPr id="308" name="テキスト ボックス 307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000034010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18419,7 +19852,7 @@
         <xdr:cNvPr id="309" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000035010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18482,7 +19915,7 @@
         <xdr:cNvPr id="310" name="グループ化 309">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000036010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18501,7 +19934,7 @@
           <xdr:cNvPr id="311" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000037010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18578,7 +20011,7 @@
           <xdr:cNvPr id="312" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000038010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18655,7 +20088,7 @@
           <xdr:cNvPr id="313" name="テキスト ボックス 312">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000039010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18715,7 +20148,7 @@
           <xdr:cNvPr id="315" name="直線矢印コネクタ 314">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -18777,7 +20210,7 @@
         <xdr:cNvPr id="317" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18838,7 +20271,7 @@
         <xdr:cNvPr id="318" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18900,7 +20333,7 @@
         <xdr:cNvPr id="319" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00003F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18955,7 +20388,7 @@
         <xdr:cNvPr id="320" name="テキスト ボックス 319">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000040010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19031,7 +20464,7 @@
         <xdr:cNvPr id="321" name="直線矢印コネクタ 320">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000041010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19089,7 +20522,7 @@
         <xdr:cNvPr id="322" name="グループ化 321">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000042010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19108,7 +20541,7 @@
           <xdr:cNvPr id="323" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000043010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19182,7 +20615,7 @@
           <xdr:cNvPr id="324" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000044010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000044010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19259,7 +20692,7 @@
           <xdr:cNvPr id="325" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000045010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19336,7 +20769,7 @@
           <xdr:cNvPr id="326" name="テキスト ボックス 325">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000046010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000046010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19400,7 +20833,7 @@
           <xdr:cNvPr id="327" name="直線矢印コネクタ 326">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000047010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19446,7 +20879,7 @@
           <xdr:cNvPr id="328" name="テキスト ボックス 327">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000048010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19510,7 +20943,7 @@
           <xdr:cNvPr id="329" name="直線矢印コネクタ 328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000049010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19553,7 +20986,7 @@
           <xdr:cNvPr id="330" name="テキスト ボックス 329">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004A010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004A010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19616,7 +21049,7 @@
           <xdr:cNvPr id="331" name="直線矢印コネクタ 330">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004B010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004B010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19670,7 +21103,7 @@
         <xdr:cNvPr id="332" name="テキスト ボックス 331">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19746,7 +21179,7 @@
         <xdr:cNvPr id="333" name="グループ化 332">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19765,7 +21198,7 @@
           <xdr:cNvPr id="334" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004E010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004E010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19842,7 +21275,7 @@
           <xdr:cNvPr id="335" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00004F010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00004F010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19919,7 +21352,7 @@
           <xdr:cNvPr id="336" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000050010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000050010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19996,7 +21429,7 @@
           <xdr:cNvPr id="337" name="テキスト ボックス 336">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000051010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000051010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20060,7 +21493,7 @@
           <xdr:cNvPr id="338" name="テキスト ボックス 337">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000052010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000052010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20123,7 +21556,7 @@
           <xdr:cNvPr id="339" name="直線矢印コネクタ 338">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000053010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000053010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20166,7 +21599,7 @@
           <xdr:cNvPr id="340" name="直線矢印コネクタ 339">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000054010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000054010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20209,7 +21642,7 @@
           <xdr:cNvPr id="341" name="テキスト ボックス 340">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000055010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000055010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20273,7 +21706,7 @@
           <xdr:cNvPr id="342" name="直線矢印コネクタ 341">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000056010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000056010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -20330,7 +21763,7 @@
         <xdr:cNvPr id="343" name="テキスト ボックス 342">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000057010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000057010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20419,7 +21852,7 @@
         <xdr:cNvPr id="344" name="テキスト ボックス 343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000058010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000058010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20498,7 +21931,7 @@
         <xdr:cNvPr id="345" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000059010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000059010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20556,7 +21989,7 @@
         <xdr:cNvPr id="346" name="円/楕円 345">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20617,7 +22050,7 @@
         <xdr:cNvPr id="347" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20678,7 +22111,7 @@
         <xdr:cNvPr id="348" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20738,7 +22171,7 @@
         <xdr:cNvPr id="349" name="円/楕円 348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20795,7 +22228,7 @@
         <xdr:cNvPr id="350" name="テキスト ボックス 349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20870,7 +22303,7 @@
         <xdr:cNvPr id="351" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00005F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20931,7 +22364,7 @@
         <xdr:cNvPr id="352" name="円/楕円 351">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000060010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000060010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20993,7 +22426,7 @@
         <xdr:cNvPr id="353" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000061010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000061010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21054,7 +22487,7 @@
         <xdr:cNvPr id="354" name="円/楕円 353">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000062010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000062010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21116,7 +22549,7 @@
         <xdr:cNvPr id="356" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000064010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000064010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21171,7 +22604,7 @@
         <xdr:cNvPr id="357" name="テキスト ボックス 356">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000065010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000065010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21244,7 +22677,7 @@
         <xdr:cNvPr id="358" name="テキスト ボックス 357">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000066010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21317,7 +22750,7 @@
         <xdr:cNvPr id="360" name="テキスト ボックス 359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000068010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000068010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21395,7 +22828,7 @@
         <xdr:cNvPr id="361" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000069010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000069010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21453,7 +22886,7 @@
         <xdr:cNvPr id="362" name="テキスト ボックス 361">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21528,7 +22961,7 @@
         <xdr:cNvPr id="363" name="円/楕円 362">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21590,7 +23023,7 @@
         <xdr:cNvPr id="364" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21650,7 +23083,7 @@
         <xdr:cNvPr id="365" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006D010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006D010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21707,7 +23140,7 @@
         <xdr:cNvPr id="366" name="テキスト ボックス 365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21783,7 +23216,7 @@
         <xdr:cNvPr id="367" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00006F010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00006F010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21843,7 +23276,7 @@
         <xdr:cNvPr id="368" name="円/楕円 367">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000070010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000070010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21900,7 +23333,7 @@
         <xdr:cNvPr id="369" name="テキスト ボックス 368">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000071010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000071010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21976,7 +23409,7 @@
         <xdr:cNvPr id="372" name="円/楕円 371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000074010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000074010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22038,7 +23471,7 @@
         <xdr:cNvPr id="442" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22130,7 +23563,7 @@
         <xdr:cNvPr id="443" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22217,7 +23650,7 @@
         <xdr:cNvPr id="444" name="テキスト ボックス 443">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22291,7 +23724,7 @@
         <xdr:cNvPr id="445" name="テキスト ボックス 444">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BD010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22369,7 +23802,7 @@
         <xdr:cNvPr id="446" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22432,7 +23865,7 @@
         <xdr:cNvPr id="447" name="グループ化 446">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000BF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22451,7 +23884,7 @@
           <xdr:cNvPr id="448" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22528,7 +23961,7 @@
           <xdr:cNvPr id="449" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22605,7 +24038,7 @@
           <xdr:cNvPr id="450" name="テキスト ボックス 449">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22665,7 +24098,7 @@
           <xdr:cNvPr id="452" name="直線矢印コネクタ 451">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22727,7 +24160,7 @@
         <xdr:cNvPr id="454" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22788,7 +24221,7 @@
         <xdr:cNvPr id="455" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22850,7 +24283,7 @@
         <xdr:cNvPr id="456" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22905,7 +24338,7 @@
         <xdr:cNvPr id="457" name="テキスト ボックス 456">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000C9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22984,7 +24417,7 @@
         <xdr:cNvPr id="458" name="直線矢印コネクタ 457">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23042,7 +24475,7 @@
         <xdr:cNvPr id="459" name="グループ化 458">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23061,7 +24494,7 @@
           <xdr:cNvPr id="460" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23151,7 +24584,7 @@
           <xdr:cNvPr id="461" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23228,7 +24661,7 @@
           <xdr:cNvPr id="462" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23305,7 +24738,7 @@
           <xdr:cNvPr id="463" name="テキスト ボックス 462">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000CF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23369,7 +24802,7 @@
           <xdr:cNvPr id="464" name="直線矢印コネクタ 463">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D0010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23415,7 +24848,7 @@
           <xdr:cNvPr id="465" name="テキスト ボックス 464">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D1010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23479,7 +24912,7 @@
           <xdr:cNvPr id="466" name="直線矢印コネクタ 465">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D2010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23522,7 +24955,7 @@
           <xdr:cNvPr id="467" name="テキスト ボックス 466">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D3010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23585,7 +25018,7 @@
           <xdr:cNvPr id="468" name="直線矢印コネクタ 467">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D4010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23639,7 +25072,7 @@
         <xdr:cNvPr id="469" name="テキスト ボックス 468">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23718,7 +25151,7 @@
         <xdr:cNvPr id="470" name="グループ化 469">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23737,7 +25170,7 @@
           <xdr:cNvPr id="471" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D7010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D7010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23814,7 +25247,7 @@
           <xdr:cNvPr id="472" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D8010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D8010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23891,7 +25324,7 @@
           <xdr:cNvPr id="473" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000D9010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23968,7 +25401,7 @@
           <xdr:cNvPr id="474" name="テキスト ボックス 473">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DA010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24032,7 +25465,7 @@
           <xdr:cNvPr id="475" name="テキスト ボックス 474">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DB010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24095,7 +25528,7 @@
           <xdr:cNvPr id="476" name="直線矢印コネクタ 475">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DC010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24138,7 +25571,7 @@
           <xdr:cNvPr id="477" name="直線矢印コネクタ 476">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DD010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DD010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24181,7 +25614,7 @@
           <xdr:cNvPr id="478" name="テキスト ボックス 477">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DE010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DE010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24245,7 +25678,7 @@
           <xdr:cNvPr id="479" name="直線矢印コネクタ 478">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DF010000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000DF010000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -24299,7 +25732,7 @@
         <xdr:cNvPr id="480" name="テキスト ボックス 479">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E0010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E0010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24388,7 +25821,7 @@
         <xdr:cNvPr id="481" name="テキスト ボックス 480">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24467,7 +25900,7 @@
         <xdr:cNvPr id="482" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24525,7 +25958,7 @@
         <xdr:cNvPr id="483" name="円/楕円 482">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24587,7 +26020,7 @@
         <xdr:cNvPr id="484" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24648,7 +26081,7 @@
         <xdr:cNvPr id="485" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24708,7 +26141,7 @@
         <xdr:cNvPr id="486" name="円/楕円 485">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24764,7 +26197,7 @@
         <xdr:cNvPr id="487" name="テキスト ボックス 486">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24839,7 +26272,7 @@
         <xdr:cNvPr id="488" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24900,7 +26333,7 @@
         <xdr:cNvPr id="489" name="円/楕円 488">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000E9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24962,7 +26395,7 @@
         <xdr:cNvPr id="490" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25023,7 +26456,7 @@
         <xdr:cNvPr id="491" name="円/楕円 490">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EB010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EB010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25085,7 +26518,7 @@
         <xdr:cNvPr id="493" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000ED010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000ED010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25140,7 +26573,7 @@
         <xdr:cNvPr id="494" name="テキスト ボックス 493">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25213,7 +26646,7 @@
         <xdr:cNvPr id="495" name="テキスト ボックス 494">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000EF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000EF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25286,7 +26719,7 @@
         <xdr:cNvPr id="497" name="テキスト ボックス 496">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F1010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F1010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25364,7 +26797,7 @@
         <xdr:cNvPr id="498" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F2010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F2010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25422,7 +26855,7 @@
         <xdr:cNvPr id="499" name="テキスト ボックス 498">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F3010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F3010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25497,7 +26930,7 @@
         <xdr:cNvPr id="500" name="円/楕円 499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F4010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F4010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25559,7 +26992,7 @@
         <xdr:cNvPr id="501" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F5010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F5010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25619,7 +27052,7 @@
         <xdr:cNvPr id="502" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F6010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F6010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25676,7 +27109,7 @@
         <xdr:cNvPr id="503" name="テキスト ボックス 502">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F7010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F7010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25755,7 +27188,7 @@
         <xdr:cNvPr id="504" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F8010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F8010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25815,7 +27248,7 @@
         <xdr:cNvPr id="505" name="円/楕円 504">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000F9010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000F9010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25872,7 +27305,7 @@
         <xdr:cNvPr id="506" name="テキスト ボックス 505">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FA010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FA010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25948,7 +27381,7 @@
         <xdr:cNvPr id="508" name="円/楕円 507">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FC010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FC010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26010,7 +27443,7 @@
         <xdr:cNvPr id="510" name="円/楕円 509">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FE010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FE010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26072,7 +27505,7 @@
         <xdr:cNvPr id="511" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000FF010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-0000FF010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26127,7 +27560,7 @@
         <xdr:cNvPr id="515" name="テキスト ボックス 514">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003020000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003020000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26212,7 +27645,7 @@
         <xdr:cNvPr id="256" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26304,7 +27737,7 @@
         <xdr:cNvPr id="257" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26391,7 +27824,7 @@
         <xdr:cNvPr id="258" name="テキスト ボックス 257">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26462,7 +27895,7 @@
         <xdr:cNvPr id="259" name="テキスト ボックス 258">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26537,7 +27970,7 @@
         <xdr:cNvPr id="263" name="直線矢印コネクタ 262">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26595,7 +28028,7 @@
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26648,7 +28081,7 @@
         <xdr:cNvPr id="371" name="テキスト ボックス 370">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26750,7 +28183,7 @@
         <xdr:cNvPr id="374" name="円/楕円 373">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26812,7 +28245,7 @@
         <xdr:cNvPr id="375" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26868,7 +28301,7 @@
         <xdr:cNvPr id="376" name="テキスト ボックス 375">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000078010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000078010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26965,7 +28398,7 @@
         <xdr:cNvPr id="377" name="テキスト ボックス 376">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000079010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000079010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27067,7 +28500,7 @@
         <xdr:cNvPr id="215" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBA09F60-1C38-4319-9D42-2D14A8AE9DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27125,7 +28558,7 @@
         <xdr:cNvPr id="216" name="円/楕円 289">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5159FF-A7CD-45BA-85AE-1681AC3AC650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27187,7 +28620,7 @@
         <xdr:cNvPr id="221" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E454E49-9569-441C-BC4C-B5F5FDD7AA89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27245,7 +28678,7 @@
         <xdr:cNvPr id="222" name="円/楕円 364">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70B001FB-5286-4E8B-8A0B-25AB45C59D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27307,7 +28740,7 @@
         <xdr:cNvPr id="223" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{803C4659-22C1-4B7B-A164-A7822B7A2751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27365,7 +28798,7 @@
         <xdr:cNvPr id="224" name="円/楕円 501">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5C66BE-0014-4780-8B2B-93AE854393A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27525,7 +28958,7 @@
         <xdr:cNvPr id="225" name="円/楕円 224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002E010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27582,7 +29015,7 @@
         <xdr:cNvPr id="226" name="テキスト ボックス 225">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002C010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27660,7 +29093,7 @@
         <xdr:cNvPr id="227" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27747,7 +29180,7 @@
         <xdr:cNvPr id="228" name="テキスト ボックス 227">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000073010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000073010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27849,7 +29282,7 @@
         <xdr:cNvPr id="229" name="円/楕円 228">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000076010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000076010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27911,7 +29344,7 @@
         <xdr:cNvPr id="230" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000077010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000077010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27967,7 +29400,7 @@
         <xdr:cNvPr id="231" name="テキスト ボックス 230">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28044,7 +29477,7 @@
         <xdr:cNvPr id="232" name="テキスト ボックス 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28119,7 +29552,7 @@
         <xdr:cNvPr id="233" name="直線矢印コネクタ 232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28177,7 +29610,7 @@
         <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00002A010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28235,7 +29668,7 @@
         <xdr:cNvPr id="235" name="Rounded Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000000010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000000010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28322,7 +29755,7 @@
         <xdr:cNvPr id="244" name="テキスト ボックス 243">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28512,7 +29945,7 @@
         <xdr:cNvPr id="99" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000063000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000063000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28604,7 +30037,7 @@
         <xdr:cNvPr id="104" name="Rounded Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000068000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28696,7 +30129,7 @@
         <xdr:cNvPr id="106" name="Rounded Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28783,7 +30216,7 @@
         <xdr:cNvPr id="113" name="テキスト ボックス 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000071000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000071000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28857,7 +30290,7 @@
         <xdr:cNvPr id="114" name="テキスト ボックス 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000072000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28935,7 +30368,7 @@
         <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000073000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000073000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28998,7 +30431,7 @@
         <xdr:cNvPr id="119" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000077000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29054,7 +30487,7 @@
         <xdr:cNvPr id="120" name="テキスト ボックス 119">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000078000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000078000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29132,7 +30565,7 @@
         <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29151,7 +30584,7 @@
           <xdr:cNvPr id="121" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000079000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000079000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29228,7 +30661,7 @@
           <xdr:cNvPr id="122" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29305,7 +30738,7 @@
           <xdr:cNvPr id="123" name="テキスト ボックス 122">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29365,7 +30798,7 @@
           <xdr:cNvPr id="126" name="直線矢印コネクタ 125">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00007E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00007E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29424,7 +30857,7 @@
         <xdr:cNvPr id="129" name="直線矢印コネクタ 164">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000081000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29484,7 +30917,7 @@
         <xdr:cNvPr id="131" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000083000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000083000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29547,7 +30980,7 @@
         <xdr:cNvPr id="132" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000084000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000084000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29600,7 +31033,7 @@
         <xdr:cNvPr id="134" name="テキスト ボックス 133">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000086000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29676,7 +31109,7 @@
         <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29734,7 +31167,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29753,7 +31186,7 @@
           <xdr:cNvPr id="107" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29830,7 +31263,7 @@
           <xdr:cNvPr id="108" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29907,7 +31340,7 @@
           <xdr:cNvPr id="109" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -29984,7 +31417,7 @@
           <xdr:cNvPr id="116" name="テキスト ボックス 115">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000074000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000074000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30048,7 +31481,7 @@
           <xdr:cNvPr id="117" name="直線矢印コネクタ 116">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000075000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000075000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30094,7 +31527,7 @@
           <xdr:cNvPr id="136" name="テキスト ボックス 135">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000088000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000088000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30158,7 +31591,7 @@
           <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000089000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000089000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30201,7 +31634,7 @@
           <xdr:cNvPr id="139" name="テキスト ボックス 138">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30264,7 +31697,7 @@
           <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30318,7 +31751,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30394,7 +31827,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30413,7 +31846,7 @@
           <xdr:cNvPr id="100" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000064000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30490,7 +31923,7 @@
           <xdr:cNvPr id="101" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000065000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000065000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30567,7 +32000,7 @@
           <xdr:cNvPr id="103" name="Rounded Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000067000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000067000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30644,7 +32077,7 @@
           <xdr:cNvPr id="44" name="テキスト ボックス 43">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30708,7 +32141,7 @@
           <xdr:cNvPr id="45" name="テキスト ボックス 44">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30771,7 +32204,7 @@
           <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30814,7 +32247,7 @@
           <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00002F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30857,7 +32290,7 @@
           <xdr:cNvPr id="52" name="テキスト ボックス 51">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000034000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30921,7 +32354,7 @@
           <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -30975,7 +32408,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31048,7 +32481,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31127,7 +32560,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000052000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31185,7 +32618,7 @@
         <xdr:cNvPr id="92" name="円/楕円 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31247,7 +32680,7 @@
         <xdr:cNvPr id="94" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31308,7 +32741,7 @@
         <xdr:cNvPr id="118" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000076000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000076000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31368,7 +32801,7 @@
         <xdr:cNvPr id="141" name="円/楕円 140">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00008D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31425,7 +32858,7 @@
         <xdr:cNvPr id="145" name="テキスト ボックス 144">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000091000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000091000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31500,7 +32933,7 @@
         <xdr:cNvPr id="72" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31561,7 +32994,7 @@
         <xdr:cNvPr id="73" name="円/楕円 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31623,7 +33056,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31683,7 +33116,7 @@
         <xdr:cNvPr id="76" name="円/楕円 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31745,7 +33178,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31800,7 +33233,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000054000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31873,7 +33306,7 @@
         <xdr:cNvPr id="85" name="テキスト ボックス 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31946,7 +33379,7 @@
         <xdr:cNvPr id="89" name="テキスト ボックス 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000059000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32024,7 +33457,7 @@
         <xdr:cNvPr id="91" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32082,7 +33515,7 @@
         <xdr:cNvPr id="95" name="テキスト ボックス 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00005F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32157,7 +33590,7 @@
         <xdr:cNvPr id="102" name="円/楕円 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000066000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32219,7 +33652,7 @@
         <xdr:cNvPr id="111" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00006F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00006F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32279,7 +33712,7 @@
         <xdr:cNvPr id="112" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000070000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000070000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32336,7 +33769,7 @@
         <xdr:cNvPr id="147" name="テキスト ボックス 146">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000093000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000093000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32412,7 +33845,7 @@
         <xdr:cNvPr id="155" name="円/楕円 154">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32474,7 +33907,7 @@
         <xdr:cNvPr id="156" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32534,7 +33967,7 @@
         <xdr:cNvPr id="157" name="円/楕円 156">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32591,7 +34024,7 @@
         <xdr:cNvPr id="158" name="テキスト ボックス 157">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00009E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00009E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32667,7 +34100,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE121FF4-57C1-4AE3-B948-CF94F7FCC18F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32725,7 +34158,7 @@
         <xdr:cNvPr id="69" name="円/楕円 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D1DB0A7-B0DF-4915-9924-F3B932238AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32782,7 +34215,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32967,7 +34400,7 @@
         <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004010000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004010000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33385,7 +34818,9 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -33407,29 +34842,34 @@
     </row>
     <row r="7" spans="2:4" ht="35.25" x14ac:dyDescent="0.8">
       <c r="B7" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="2:4" ht="33" x14ac:dyDescent="0.75">
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D17" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="16" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.39000000000000007" right="0.39000000000000007" top="0.39000000000000007" bottom="0.39000000000000007" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -33445,12 +34885,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -33463,7 +34903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
@@ -33476,29 +34916,29 @@
   <sheetData>
     <row r="2" spans="2:22" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -33508,7 +34948,7 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -33518,7 +34958,7 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -33535,7 +34975,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -33552,7 +34992,7 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -33564,7 +35004,7 @@
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -33576,7 +35016,7 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.35">
@@ -33817,10 +35257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB98"/>
+  <dimension ref="B2:AB102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AM30" sqref="AM30"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScaleNormal="71" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -33832,19 +35272,19 @@
   <sheetData>
     <row r="2" spans="2:3" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -33852,37 +35292,37 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
@@ -33920,7 +35360,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -33933,7 +35373,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -33946,7 +35386,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -33959,7 +35399,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -33972,7 +35412,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -33985,7 +35425,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -33998,7 +35438,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -34011,7 +35451,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -34024,7 +35464,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -34037,96 +35477,67 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-    </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-    </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.35">
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-    </row>
     <row r="82" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
     </row>
     <row r="83" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="C83" s="13"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
     </row>
     <row r="84" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="C84" s="13"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.35">
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
+      <c r="C88" s="13"/>
     </row>
     <row r="92" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="W92" s="7"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
@@ -34134,6 +35545,7 @@
       <c r="AB92" s="7"/>
     </row>
     <row r="93" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="W93" s="7"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
@@ -34175,13 +35587,41 @@
       <c r="AA98" s="7"/>
       <c r="AB98" s="7"/>
     </row>
+    <row r="99" spans="24:28" x14ac:dyDescent="0.35">
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+    </row>
+    <row r="100" spans="24:28" x14ac:dyDescent="0.35">
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+    </row>
+    <row r="101" spans="24:28" x14ac:dyDescent="0.35">
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="24:28" x14ac:dyDescent="0.35">
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="47" max="48" man="1"/>
-    <brk id="77" max="48" man="1"/>
+    <brk id="78" max="48" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="55" max="57" man="1"/>
@@ -34207,19 +35647,19 @@
   <sheetData>
     <row r="2" spans="3:4" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="3:4" ht="16.5" x14ac:dyDescent="0.4">
       <c r="C4" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:4" ht="16.5" x14ac:dyDescent="0.4">
       <c r="C5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
@@ -34227,37 +35667,37 @@
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="4:23" x14ac:dyDescent="0.35">
@@ -34569,19 +36009,19 @@
   <sheetData>
     <row r="2" spans="2:3" s="8" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
@@ -34589,37 +36029,37 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7"/>
     </row>
